--- a/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
     <sheet name="_outCoke_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -20,62 +23,7 @@
     <t>6&amp;7#焦 出焦除尘</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                           SGSSG-BSMCSA35-G006-03A</t>
-    </r>
+    <t>SGSSG-BSMCSA35-G006-03A</t>
   </si>
   <si>
     <t xml:space="preserve">         参数
@@ -691,8 +639,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -740,15 +688,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,7 +720,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,30 +757,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,48 +787,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,14 +803,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,13 +869,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,31 +929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,25 +965,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,25 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,25 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,13 +1031,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,11 +1315,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,21 +1361,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1430,26 +1389,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1464,16 +1403,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1482,133 +1430,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -1972,6 +1920,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2233,7 +2194,7 @@
   <dimension ref="A1:IT35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="O2" sqref="O2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2506,8 +2467,9 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="16.5" spans="1:254">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
+      <c r="B2" s="6" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2521,7 +2483,9 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -12347,9 +12311,10 @@
       <c r="S35" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="O2:S2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>

--- a/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
     <sheet name="_outCoke_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -636,11 +634,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -688,17 +687,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,8 +730,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,10 +754,26 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,29 +786,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,54 +823,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,7 +868,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +916,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,37 +1006,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,103 +1036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,6 +1314,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1345,7 +1377,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,15 +1397,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1388,40 +1411,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1430,140 +1429,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1578,7 +1577,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1637,6 +1636,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1920,19 +1922,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2194,7 +2183,7 @@
   <dimension ref="A1:IT35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:S2"/>
+      <selection activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2467,9 +2456,9 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="16.5" spans="1:254">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="B2" s="6">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2483,13 +2472,13 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -2762,10 +2751,10 @@
       <c r="Q3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T3" s="4"/>
@@ -3044,9 +3033,9 @@
         <v>19</v>
       </c>
       <c r="Q4" s="13"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="32"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="33"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -3603,7 +3592,7 @@
         <f>IF(_outCoke_day_hour!F2="","",_outCoke_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="26" t="str">
+      <c r="I6" s="27" t="str">
         <f>IF(_outCoke_day_hour!G2="","",_outCoke_day_hour!G2)</f>
         <v/>
       </c>
@@ -3639,11 +3628,11 @@
         <f>IF(_outCoke_day_hour!O2="","",_outCoke_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="33" t="str">
+      <c r="R6" s="34" t="str">
         <f>IF(_outCoke_day_hour!P2="","",_outCoke_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="34" t="str">
+      <c r="S6" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q2="","",_outCoke_day_hour!Q2)</f>
         <v/>
       </c>
@@ -3912,7 +3901,7 @@
         <f>IF(_outCoke_day_hour!F3="","",_outCoke_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="26" t="str">
+      <c r="I7" s="27" t="str">
         <f>IF(_outCoke_day_hour!G3="","",_outCoke_day_hour!G3)</f>
         <v/>
       </c>
@@ -3948,11 +3937,11 @@
         <f>IF(_outCoke_day_hour!O3="","",_outCoke_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="35" t="str">
+      <c r="R7" s="36" t="str">
         <f>IF(_outCoke_day_hour!P3="","",_outCoke_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="34" t="str">
+      <c r="S7" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q3="","",_outCoke_day_hour!Q3)</f>
         <v/>
       </c>
@@ -4221,7 +4210,7 @@
         <f>IF(_outCoke_day_hour!F4="","",_outCoke_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="26" t="str">
+      <c r="I8" s="27" t="str">
         <f>IF(_outCoke_day_hour!G4="","",_outCoke_day_hour!G4)</f>
         <v/>
       </c>
@@ -4261,7 +4250,7 @@
         <f>IF(_outCoke_day_hour!P4="","",_outCoke_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="34" t="str">
+      <c r="S8" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q4="","",_outCoke_day_hour!Q4)</f>
         <v/>
       </c>
@@ -4530,7 +4519,7 @@
         <f>IF(_outCoke_day_hour!F5="","",_outCoke_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="26" t="str">
+      <c r="I9" s="27" t="str">
         <f>IF(_outCoke_day_hour!G5="","",_outCoke_day_hour!G5)</f>
         <v/>
       </c>
@@ -4570,7 +4559,7 @@
         <f>IF(_outCoke_day_hour!P5="","",_outCoke_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="34" t="str">
+      <c r="S9" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q5="","",_outCoke_day_hour!Q5)</f>
         <v/>
       </c>
@@ -4839,7 +4828,7 @@
         <f>IF(_outCoke_day_hour!F6="","",_outCoke_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="26" t="str">
+      <c r="I10" s="27" t="str">
         <f>IF(_outCoke_day_hour!G6="","",_outCoke_day_hour!G6)</f>
         <v/>
       </c>
@@ -4879,7 +4868,7 @@
         <f>IF(_outCoke_day_hour!P6="","",_outCoke_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="34" t="str">
+      <c r="S10" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q6="","",_outCoke_day_hour!Q6)</f>
         <v/>
       </c>
@@ -5148,7 +5137,7 @@
         <f>IF(_outCoke_day_hour!F7="","",_outCoke_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="26" t="str">
+      <c r="I11" s="27" t="str">
         <f>IF(_outCoke_day_hour!G7="","",_outCoke_day_hour!G7)</f>
         <v/>
       </c>
@@ -5188,7 +5177,7 @@
         <f>IF(_outCoke_day_hour!P7="","",_outCoke_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="34" t="str">
+      <c r="S11" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q7="","",_outCoke_day_hour!Q7)</f>
         <v/>
       </c>
@@ -5457,7 +5446,7 @@
         <f>IF(_outCoke_day_hour!F8="","",_outCoke_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="26" t="str">
+      <c r="I12" s="27" t="str">
         <f>IF(_outCoke_day_hour!G8="","",_outCoke_day_hour!G8)</f>
         <v/>
       </c>
@@ -5497,7 +5486,7 @@
         <f>IF(_outCoke_day_hour!P8="","",_outCoke_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="34" t="str">
+      <c r="S12" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q8="","",_outCoke_day_hour!Q8)</f>
         <v/>
       </c>
@@ -5766,7 +5755,7 @@
         <f>IF(_outCoke_day_hour!F9="","",_outCoke_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="26" t="str">
+      <c r="I13" s="27" t="str">
         <f>IF(_outCoke_day_hour!G9="","",_outCoke_day_hour!G9)</f>
         <v/>
       </c>
@@ -5806,7 +5795,7 @@
         <f>IF(_outCoke_day_hour!P9="","",_outCoke_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="34" t="str">
+      <c r="S13" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q9="","",_outCoke_day_hour!Q9)</f>
         <v/>
       </c>
@@ -6075,7 +6064,7 @@
         <f>IF(_outCoke_day_hour!F10="","",_outCoke_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="26" t="str">
+      <c r="I14" s="27" t="str">
         <f>IF(_outCoke_day_hour!G10="","",_outCoke_day_hour!G10)</f>
         <v/>
       </c>
@@ -6115,7 +6104,7 @@
         <f>IF(_outCoke_day_hour!P10="","",_outCoke_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="34" t="str">
+      <c r="S14" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q10="","",_outCoke_day_hour!Q10)</f>
         <v/>
       </c>
@@ -6384,7 +6373,7 @@
         <f>IF(_outCoke_day_hour!F11="","",_outCoke_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="26" t="str">
+      <c r="I15" s="27" t="str">
         <f>IF(_outCoke_day_hour!G11="","",_outCoke_day_hour!G11)</f>
         <v/>
       </c>
@@ -6424,7 +6413,7 @@
         <f>IF(_outCoke_day_hour!P11="","",_outCoke_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="34" t="str">
+      <c r="S15" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q11="","",_outCoke_day_hour!Q11)</f>
         <v/>
       </c>
@@ -6693,7 +6682,7 @@
         <f>IF(_outCoke_day_hour!F12="","",_outCoke_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="26" t="str">
+      <c r="I16" s="27" t="str">
         <f>IF(_outCoke_day_hour!G12="","",_outCoke_day_hour!G12)</f>
         <v/>
       </c>
@@ -6733,7 +6722,7 @@
         <f>IF(_outCoke_day_hour!P12="","",_outCoke_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="34" t="str">
+      <c r="S16" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q12="","",_outCoke_day_hour!Q12)</f>
         <v/>
       </c>
@@ -7002,7 +6991,7 @@
         <f>IF(_outCoke_day_hour!F13="","",_outCoke_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="26" t="str">
+      <c r="I17" s="27" t="str">
         <f>IF(_outCoke_day_hour!G13="","",_outCoke_day_hour!G13)</f>
         <v/>
       </c>
@@ -7042,7 +7031,7 @@
         <f>IF(_outCoke_day_hour!P13="","",_outCoke_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="34" t="str">
+      <c r="S17" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q13="","",_outCoke_day_hour!Q13)</f>
         <v/>
       </c>
@@ -7339,19 +7328,19 @@
         <f>IF(_outCoke_day_hour!M14="","",_outCoke_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="27" t="str">
+      <c r="P18" s="28" t="str">
         <f>IF(_outCoke_day_hour!N14="","",_outCoke_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="27" t="str">
+      <c r="Q18" s="28" t="str">
         <f>IF(_outCoke_day_hour!O14="","",_outCoke_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="33" t="str">
+      <c r="R18" s="34" t="str">
         <f>IF(_outCoke_day_hour!P14="","",_outCoke_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="36" t="str">
+      <c r="S18" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q14="","",_outCoke_day_hour!Q14)</f>
         <v/>
       </c>
@@ -7648,19 +7637,19 @@
         <f>IF(_outCoke_day_hour!M15="","",_outCoke_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="27" t="str">
+      <c r="P19" s="28" t="str">
         <f>IF(_outCoke_day_hour!N15="","",_outCoke_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="27" t="str">
+      <c r="Q19" s="28" t="str">
         <f>IF(_outCoke_day_hour!O15="","",_outCoke_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="35" t="str">
+      <c r="R19" s="36" t="str">
         <f>IF(_outCoke_day_hour!P15="","",_outCoke_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="36" t="str">
+      <c r="S19" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q15="","",_outCoke_day_hour!Q15)</f>
         <v/>
       </c>
@@ -7957,19 +7946,19 @@
         <f>IF(_outCoke_day_hour!M16="","",_outCoke_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="27" t="str">
+      <c r="P20" s="28" t="str">
         <f>IF(_outCoke_day_hour!N16="","",_outCoke_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="27" t="str">
+      <c r="Q20" s="28" t="str">
         <f>IF(_outCoke_day_hour!O16="","",_outCoke_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="27" t="str">
+      <c r="R20" s="28" t="str">
         <f>IF(_outCoke_day_hour!P16="","",_outCoke_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="36" t="str">
+      <c r="S20" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q16="","",_outCoke_day_hour!Q16)</f>
         <v/>
       </c>
@@ -8266,19 +8255,19 @@
         <f>IF(_outCoke_day_hour!M17="","",_outCoke_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="27" t="str">
+      <c r="P21" s="28" t="str">
         <f>IF(_outCoke_day_hour!N17="","",_outCoke_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="27" t="str">
+      <c r="Q21" s="28" t="str">
         <f>IF(_outCoke_day_hour!O17="","",_outCoke_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="27" t="str">
+      <c r="R21" s="28" t="str">
         <f>IF(_outCoke_day_hour!P17="","",_outCoke_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="36" t="str">
+      <c r="S21" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q17="","",_outCoke_day_hour!Q17)</f>
         <v/>
       </c>
@@ -8575,19 +8564,19 @@
         <f>IF(_outCoke_day_hour!M18="","",_outCoke_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="27" t="str">
+      <c r="P22" s="28" t="str">
         <f>IF(_outCoke_day_hour!N18="","",_outCoke_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="27" t="str">
+      <c r="Q22" s="28" t="str">
         <f>IF(_outCoke_day_hour!O18="","",_outCoke_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="27" t="str">
+      <c r="R22" s="28" t="str">
         <f>IF(_outCoke_day_hour!P18="","",_outCoke_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="36" t="str">
+      <c r="S22" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q18="","",_outCoke_day_hour!Q18)</f>
         <v/>
       </c>
@@ -8884,19 +8873,19 @@
         <f>IF(_outCoke_day_hour!M19="","",_outCoke_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="27" t="str">
+      <c r="P23" s="28" t="str">
         <f>IF(_outCoke_day_hour!N19="","",_outCoke_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="27" t="str">
+      <c r="Q23" s="28" t="str">
         <f>IF(_outCoke_day_hour!O19="","",_outCoke_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="27" t="str">
+      <c r="R23" s="28" t="str">
         <f>IF(_outCoke_day_hour!P19="","",_outCoke_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="36" t="str">
+      <c r="S23" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q19="","",_outCoke_day_hour!Q19)</f>
         <v/>
       </c>
@@ -9193,19 +9182,19 @@
         <f>IF(_outCoke_day_hour!M20="","",_outCoke_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="27" t="str">
+      <c r="P24" s="28" t="str">
         <f>IF(_outCoke_day_hour!N20="","",_outCoke_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="27" t="str">
+      <c r="Q24" s="28" t="str">
         <f>IF(_outCoke_day_hour!O20="","",_outCoke_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="27" t="str">
+      <c r="R24" s="28" t="str">
         <f>IF(_outCoke_day_hour!P20="","",_outCoke_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="36" t="str">
+      <c r="S24" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q20="","",_outCoke_day_hour!Q20)</f>
         <v/>
       </c>
@@ -9502,19 +9491,19 @@
         <f>IF(_outCoke_day_hour!M21="","",_outCoke_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="27" t="str">
+      <c r="P25" s="28" t="str">
         <f>IF(_outCoke_day_hour!N21="","",_outCoke_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="27" t="str">
+      <c r="Q25" s="28" t="str">
         <f>IF(_outCoke_day_hour!O21="","",_outCoke_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="27" t="str">
+      <c r="R25" s="28" t="str">
         <f>IF(_outCoke_day_hour!P21="","",_outCoke_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="36" t="str">
+      <c r="S25" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q21="","",_outCoke_day_hour!Q21)</f>
         <v/>
       </c>
@@ -9811,19 +9800,19 @@
         <f>IF(_outCoke_day_hour!M22="","",_outCoke_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="27" t="str">
+      <c r="P26" s="28" t="str">
         <f>IF(_outCoke_day_hour!N22="","",_outCoke_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="27" t="str">
+      <c r="Q26" s="28" t="str">
         <f>IF(_outCoke_day_hour!O22="","",_outCoke_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="27" t="str">
+      <c r="R26" s="28" t="str">
         <f>IF(_outCoke_day_hour!P22="","",_outCoke_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="36" t="str">
+      <c r="S26" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q22="","",_outCoke_day_hour!Q22)</f>
         <v/>
       </c>
@@ -10120,19 +10109,19 @@
         <f>IF(_outCoke_day_hour!M23="","",_outCoke_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="27" t="str">
+      <c r="P27" s="28" t="str">
         <f>IF(_outCoke_day_hour!N23="","",_outCoke_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="27" t="str">
+      <c r="Q27" s="28" t="str">
         <f>IF(_outCoke_day_hour!O23="","",_outCoke_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="27" t="str">
+      <c r="R27" s="28" t="str">
         <f>IF(_outCoke_day_hour!P23="","",_outCoke_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="36" t="str">
+      <c r="S27" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q23="","",_outCoke_day_hour!Q23)</f>
         <v/>
       </c>
@@ -10429,19 +10418,19 @@
         <f>IF(_outCoke_day_hour!M24="","",_outCoke_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="27" t="str">
+      <c r="P28" s="28" t="str">
         <f>IF(_outCoke_day_hour!N24="","",_outCoke_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="27" t="str">
+      <c r="Q28" s="28" t="str">
         <f>IF(_outCoke_day_hour!O24="","",_outCoke_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="27" t="str">
+      <c r="R28" s="28" t="str">
         <f>IF(_outCoke_day_hour!P24="","",_outCoke_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="36" t="str">
+      <c r="S28" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q24="","",_outCoke_day_hour!Q24)</f>
         <v/>
       </c>
@@ -10738,19 +10727,19 @@
         <f>IF(_outCoke_day_hour!M25="","",_outCoke_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="27" t="str">
+      <c r="P29" s="28" t="str">
         <f>IF(_outCoke_day_hour!N25="","",_outCoke_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="27" t="str">
+      <c r="Q29" s="28" t="str">
         <f>IF(_outCoke_day_hour!O25="","",_outCoke_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="27" t="str">
+      <c r="R29" s="28" t="str">
         <f>IF(_outCoke_day_hour!P25="","",_outCoke_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="36" t="str">
+      <c r="S29" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q25="","",_outCoke_day_hour!Q25)</f>
         <v/>
       </c>
@@ -11008,10 +10997,10 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="36"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="37"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -11266,10 +11255,10 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="36"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="37"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -11524,10 +11513,10 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="36"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="37"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -11782,10 +11771,10 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="36"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="37"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -12410,4 +12399,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>6&amp;7#焦 出焦除尘</t>
   </si>
@@ -32,6 +32,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机轴温
@@ -43,6 +44,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机定子温度
@@ -52,7 +54,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -60,6 +62,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -70,6 +73,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机电流
@@ -79,7 +83,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>A</t>
     </r>
@@ -87,6 +91,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -101,6 +106,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷却水流量
@@ -110,7 +116,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -119,7 +125,7 @@
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -127,7 +133,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -135,6 +141,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -145,6 +152,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>风机轴温</t>
@@ -153,7 +161,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  
 </t>
@@ -162,6 +170,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（℃）</t>
@@ -172,6 +181,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>风机轴承振幅</t>
@@ -180,7 +190,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">       
 </t>
@@ -189,6 +199,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -197,7 +208,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>mm/s</t>
     </r>
@@ -205,6 +216,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -215,6 +227,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>除尘器
@@ -227,6 +240,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>除尘压差
@@ -236,7 +250,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Kpa</t>
     </r>
@@ -244,6 +258,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -254,6 +269,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>储气罐压力</t>
@@ -262,7 +278,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
@@ -271,6 +287,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -279,7 +296,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Mpa</t>
     </r>
@@ -287,6 +304,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -297,7 +315,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1
 </t>
@@ -306,6 +324,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（驱动端）</t>
@@ -316,7 +335,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2
 </t>
@@ -325,6 +344,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（非驱动端）</t>
@@ -335,7 +355,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -343,6 +363,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（驱动端）</t>
@@ -353,7 +374,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1A
 </t>
@@ -362,6 +383,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（径向驱动端）</t>
@@ -372,7 +394,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2A
 </t>
@@ -381,6 +403,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（轴向非驱动端）</t>
@@ -391,7 +414,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1B
 </t>
@@ -400,6 +423,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（轴向驱动端）</t>
@@ -410,7 +434,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2B
 </t>
@@ -419,6 +443,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（径向非驱动端）</t>
@@ -495,7 +520,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -503,6 +528,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜</t>
@@ -512,6 +538,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -520,7 +547,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -530,7 +557,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -538,6 +565,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -547,6 +575,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -555,7 +584,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -565,7 +594,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -573,6 +602,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -582,6 +612,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -590,7 +621,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -600,7 +631,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -608,6 +639,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -616,7 +648,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -624,6 +656,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -633,15 +666,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,208 +678,78 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="22"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,194 +762,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1313,251 +1023,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -1567,155 +1035,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1726,7 +1147,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1740,7 +1161,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -2174,19 +1595,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
@@ -2196,28 +1617,28 @@
     <col min="255" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:254">
+    <row r="1" spans="1:254" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -2454,31 +1875,31 @@
       <c r="IS1" s="4"/>
       <c r="IT1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:254">
+    <row r="2" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
-      <c r="B2" s="6">
-        <f>_metadata!B1</f>
+      <c r="B2" s="37">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="26" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -2715,46 +2136,46 @@
       <c r="IS2" s="4"/>
       <c r="IT2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:254">
+    <row r="3" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="11" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="35" t="s">
         <v>12</v>
       </c>
       <c r="T3" s="4"/>
@@ -2993,9 +2414,9 @@
       <c r="IS3" s="4"/>
       <c r="IT3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="36.75" spans="1:254">
+    <row r="4" spans="1:254" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -3011,9 +2432,9 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
       <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3032,10 +2453,10 @@
       <c r="P4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="33"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="13"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -3271,9 +2692,9 @@
       <c r="IS4" s="4"/>
       <c r="IT4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="78.75" spans="1:254">
+    <row r="5" spans="1:254" ht="78.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -3563,9 +2984,9 @@
       <c r="IS5" s="4"/>
       <c r="IT5" s="4"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="6" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
-      <c r="B6" s="15">
+      <c r="B6" s="6">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -3592,7 +3013,7 @@
         <f>IF(_outCoke_day_hour!F2="","",_outCoke_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="27" t="str">
+      <c r="I6" s="11" t="str">
         <f>IF(_outCoke_day_hour!G2="","",_outCoke_day_hour!G2)</f>
         <v/>
       </c>
@@ -3628,11 +3049,11 @@
         <f>IF(_outCoke_day_hour!O2="","",_outCoke_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="34" t="str">
+      <c r="R6" s="14" t="str">
         <f>IF(_outCoke_day_hour!P2="","",_outCoke_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="35" t="str">
+      <c r="S6" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q2="","",_outCoke_day_hour!Q2)</f>
         <v/>
       </c>
@@ -3872,10 +3293,10 @@
       <c r="IS6" s="4"/>
       <c r="IT6" s="4"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="7" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
-      <c r="B7" s="15">
-        <v>0.0416666666666667</v>
+      <c r="B7" s="6">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IF(_outCoke_day_hour!A3="","",_outCoke_day_hour!A3)</f>
@@ -3901,7 +3322,7 @@
         <f>IF(_outCoke_day_hour!F3="","",_outCoke_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="11" t="str">
         <f>IF(_outCoke_day_hour!G3="","",_outCoke_day_hour!G3)</f>
         <v/>
       </c>
@@ -3937,11 +3358,11 @@
         <f>IF(_outCoke_day_hour!O3="","",_outCoke_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="36" t="str">
+      <c r="R7" s="16" t="str">
         <f>IF(_outCoke_day_hour!P3="","",_outCoke_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="35" t="str">
+      <c r="S7" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q3="","",_outCoke_day_hour!Q3)</f>
         <v/>
       </c>
@@ -4181,10 +3602,10 @@
       <c r="IS7" s="4"/>
       <c r="IT7" s="4"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="8" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
-      <c r="B8" s="15">
-        <v>0.0833333333333333</v>
+      <c r="B8" s="6">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IF(_outCoke_day_hour!A4="","",_outCoke_day_hour!A4)</f>
@@ -4210,7 +3631,7 @@
         <f>IF(_outCoke_day_hour!F4="","",_outCoke_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="11" t="str">
         <f>IF(_outCoke_day_hour!G4="","",_outCoke_day_hour!G4)</f>
         <v/>
       </c>
@@ -4250,7 +3671,7 @@
         <f>IF(_outCoke_day_hour!P4="","",_outCoke_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="35" t="str">
+      <c r="S8" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q4="","",_outCoke_day_hour!Q4)</f>
         <v/>
       </c>
@@ -4490,9 +3911,9 @@
       <c r="IS8" s="4"/>
       <c r="IT8" s="4"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="9" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
-      <c r="B9" s="15">
+      <c r="B9" s="6">
         <v>0.125</v>
       </c>
       <c r="C9" s="2" t="str">
@@ -4519,7 +3940,7 @@
         <f>IF(_outCoke_day_hour!F5="","",_outCoke_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="11" t="str">
         <f>IF(_outCoke_day_hour!G5="","",_outCoke_day_hour!G5)</f>
         <v/>
       </c>
@@ -4559,7 +3980,7 @@
         <f>IF(_outCoke_day_hour!P5="","",_outCoke_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="35" t="str">
+      <c r="S9" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q5="","",_outCoke_day_hour!Q5)</f>
         <v/>
       </c>
@@ -4799,10 +4220,10 @@
       <c r="IS9" s="4"/>
       <c r="IT9" s="4"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="10" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
-      <c r="B10" s="15">
-        <v>0.166666666666667</v>
+      <c r="B10" s="6">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IF(_outCoke_day_hour!A6="","",_outCoke_day_hour!A6)</f>
@@ -4828,7 +4249,7 @@
         <f>IF(_outCoke_day_hour!F6="","",_outCoke_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="11" t="str">
         <f>IF(_outCoke_day_hour!G6="","",_outCoke_day_hour!G6)</f>
         <v/>
       </c>
@@ -4868,7 +4289,7 @@
         <f>IF(_outCoke_day_hour!P6="","",_outCoke_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="35" t="str">
+      <c r="S10" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q6="","",_outCoke_day_hour!Q6)</f>
         <v/>
       </c>
@@ -5108,10 +4529,10 @@
       <c r="IS10" s="4"/>
       <c r="IT10" s="4"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="11" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="B11" s="15">
-        <v>0.208333333333333</v>
+      <c r="B11" s="6">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IF(_outCoke_day_hour!A7="","",_outCoke_day_hour!A7)</f>
@@ -5137,7 +4558,7 @@
         <f>IF(_outCoke_day_hour!F7="","",_outCoke_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="11" t="str">
         <f>IF(_outCoke_day_hour!G7="","",_outCoke_day_hour!G7)</f>
         <v/>
       </c>
@@ -5177,7 +4598,7 @@
         <f>IF(_outCoke_day_hour!P7="","",_outCoke_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="35" t="str">
+      <c r="S11" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q7="","",_outCoke_day_hour!Q7)</f>
         <v/>
       </c>
@@ -5417,9 +4838,9 @@
       <c r="IS11" s="4"/>
       <c r="IT11" s="4"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="12" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="15">
+      <c r="B12" s="6">
         <v>0.25</v>
       </c>
       <c r="C12" s="2" t="str">
@@ -5446,7 +4867,7 @@
         <f>IF(_outCoke_day_hour!F8="","",_outCoke_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="27" t="str">
+      <c r="I12" s="11" t="str">
         <f>IF(_outCoke_day_hour!G8="","",_outCoke_day_hour!G8)</f>
         <v/>
       </c>
@@ -5486,7 +4907,7 @@
         <f>IF(_outCoke_day_hour!P8="","",_outCoke_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="35" t="str">
+      <c r="S12" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q8="","",_outCoke_day_hour!Q8)</f>
         <v/>
       </c>
@@ -5726,10 +5147,10 @@
       <c r="IS12" s="4"/>
       <c r="IT12" s="4"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="13" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="15">
-        <v>0.291666666666667</v>
+      <c r="B13" s="6">
+        <v>0.29166666666666702</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IF(_outCoke_day_hour!A9="","",_outCoke_day_hour!A9)</f>
@@ -5755,7 +5176,7 @@
         <f>IF(_outCoke_day_hour!F9="","",_outCoke_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="27" t="str">
+      <c r="I13" s="11" t="str">
         <f>IF(_outCoke_day_hour!G9="","",_outCoke_day_hour!G9)</f>
         <v/>
       </c>
@@ -5795,7 +5216,7 @@
         <f>IF(_outCoke_day_hour!P9="","",_outCoke_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="35" t="str">
+      <c r="S13" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q9="","",_outCoke_day_hour!Q9)</f>
         <v/>
       </c>
@@ -6035,10 +5456,10 @@
       <c r="IS13" s="4"/>
       <c r="IT13" s="4"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="14" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="15">
-        <v>0.333333333333333</v>
+      <c r="B14" s="6">
+        <v>0.33333333333333298</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IF(_outCoke_day_hour!A10="","",_outCoke_day_hour!A10)</f>
@@ -6064,7 +5485,7 @@
         <f>IF(_outCoke_day_hour!F10="","",_outCoke_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="27" t="str">
+      <c r="I14" s="11" t="str">
         <f>IF(_outCoke_day_hour!G10="","",_outCoke_day_hour!G10)</f>
         <v/>
       </c>
@@ -6104,7 +5525,7 @@
         <f>IF(_outCoke_day_hour!P10="","",_outCoke_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="35" t="str">
+      <c r="S14" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q10="","",_outCoke_day_hour!Q10)</f>
         <v/>
       </c>
@@ -6344,9 +5765,9 @@
       <c r="IS14" s="4"/>
       <c r="IT14" s="4"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="15" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="15">
+      <c r="B15" s="6">
         <v>0.375</v>
       </c>
       <c r="C15" s="2" t="str">
@@ -6373,7 +5794,7 @@
         <f>IF(_outCoke_day_hour!F11="","",_outCoke_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="27" t="str">
+      <c r="I15" s="11" t="str">
         <f>IF(_outCoke_day_hour!G11="","",_outCoke_day_hour!G11)</f>
         <v/>
       </c>
@@ -6413,7 +5834,7 @@
         <f>IF(_outCoke_day_hour!P11="","",_outCoke_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="35" t="str">
+      <c r="S15" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q11="","",_outCoke_day_hour!Q11)</f>
         <v/>
       </c>
@@ -6653,10 +6074,10 @@
       <c r="IS15" s="4"/>
       <c r="IT15" s="4"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="16" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="15">
-        <v>0.416666666666667</v>
+      <c r="B16" s="6">
+        <v>0.41666666666666702</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(_outCoke_day_hour!A12="","",_outCoke_day_hour!A12)</f>
@@ -6682,7 +6103,7 @@
         <f>IF(_outCoke_day_hour!F12="","",_outCoke_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="27" t="str">
+      <c r="I16" s="11" t="str">
         <f>IF(_outCoke_day_hour!G12="","",_outCoke_day_hour!G12)</f>
         <v/>
       </c>
@@ -6722,7 +6143,7 @@
         <f>IF(_outCoke_day_hour!P12="","",_outCoke_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="35" t="str">
+      <c r="S16" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q12="","",_outCoke_day_hour!Q12)</f>
         <v/>
       </c>
@@ -6962,10 +6383,10 @@
       <c r="IS16" s="4"/>
       <c r="IT16" s="4"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.75" spans="1:254">
+    <row r="17" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="15">
-        <v>0.458333333333333</v>
+      <c r="B17" s="6">
+        <v>0.45833333333333298</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>IF(_outCoke_day_hour!A13="","",_outCoke_day_hour!A13)</f>
@@ -6991,7 +6412,7 @@
         <f>IF(_outCoke_day_hour!F13="","",_outCoke_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="27" t="str">
+      <c r="I17" s="11" t="str">
         <f>IF(_outCoke_day_hour!G13="","",_outCoke_day_hour!G13)</f>
         <v/>
       </c>
@@ -7031,7 +6452,7 @@
         <f>IF(_outCoke_day_hour!P13="","",_outCoke_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="35" t="str">
+      <c r="S17" s="15" t="str">
         <f>IF(_outCoke_day_hour!Q13="","",_outCoke_day_hour!Q13)</f>
         <v/>
       </c>
@@ -7271,76 +6692,76 @@
       <c r="IS17" s="4"/>
       <c r="IT17" s="4"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="18" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="15">
+      <c r="B18" s="6">
         <v>0.5</v>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" s="7" t="str">
         <f>IF(_outCoke_day_hour!A14="","",_outCoke_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" s="7" t="str">
         <f>IF(_outCoke_day_hour!B14="","",_outCoke_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="7" t="str">
         <f>IF(_outCoke_day_hour!C14="","",_outCoke_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" s="7" t="str">
         <f>IF(_outCoke_day_hour!D14="","",_outCoke_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="16" t="str">
+      <c r="G18" s="7" t="str">
         <f>IF(_outCoke_day_hour!E14="","",_outCoke_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="16" t="str">
+      <c r="H18" s="7" t="str">
         <f>IF(_outCoke_day_hour!F14="","",_outCoke_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="16" t="str">
+      <c r="I18" s="7" t="str">
         <f>IF(_outCoke_day_hour!G14="","",_outCoke_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="16" t="str">
+      <c r="J18" s="7" t="str">
         <f>IF(_outCoke_day_hour!H14="","",_outCoke_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="16" t="str">
+      <c r="K18" s="7" t="str">
         <f>IF(_outCoke_day_hour!I14="","",_outCoke_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="16" t="str">
+      <c r="L18" s="7" t="str">
         <f>IF(_outCoke_day_hour!J14="","",_outCoke_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="16" t="str">
+      <c r="M18" s="7" t="str">
         <f>IF(_outCoke_day_hour!K14="","",_outCoke_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="16" t="str">
+      <c r="N18" s="7" t="str">
         <f>IF(_outCoke_day_hour!L14="","",_outCoke_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="16" t="str">
+      <c r="O18" s="7" t="str">
         <f>IF(_outCoke_day_hour!M14="","",_outCoke_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="28" t="str">
+      <c r="P18" s="12" t="str">
         <f>IF(_outCoke_day_hour!N14="","",_outCoke_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="28" t="str">
+      <c r="Q18" s="12" t="str">
         <f>IF(_outCoke_day_hour!O14="","",_outCoke_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="34" t="str">
+      <c r="R18" s="14" t="str">
         <f>IF(_outCoke_day_hour!P14="","",_outCoke_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="37" t="str">
+      <c r="S18" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q14="","",_outCoke_day_hour!Q14)</f>
         <v/>
       </c>
@@ -7580,76 +7001,76 @@
       <c r="IS18" s="4"/>
       <c r="IT18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="19" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="15">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="C19" s="16" t="str">
+      <c r="B19" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C19" s="7" t="str">
         <f>IF(_outCoke_day_hour!A15="","",_outCoke_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" s="7" t="str">
         <f>IF(_outCoke_day_hour!B15="","",_outCoke_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="7" t="str">
         <f>IF(_outCoke_day_hour!C15="","",_outCoke_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" s="7" t="str">
         <f>IF(_outCoke_day_hour!D15="","",_outCoke_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="16" t="str">
+      <c r="G19" s="7" t="str">
         <f>IF(_outCoke_day_hour!E15="","",_outCoke_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="16" t="str">
+      <c r="H19" s="7" t="str">
         <f>IF(_outCoke_day_hour!F15="","",_outCoke_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="7" t="str">
         <f>IF(_outCoke_day_hour!G15="","",_outCoke_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="16" t="str">
+      <c r="J19" s="7" t="str">
         <f>IF(_outCoke_day_hour!H15="","",_outCoke_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="16" t="str">
+      <c r="K19" s="7" t="str">
         <f>IF(_outCoke_day_hour!I15="","",_outCoke_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="16" t="str">
+      <c r="L19" s="7" t="str">
         <f>IF(_outCoke_day_hour!J15="","",_outCoke_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="16" t="str">
+      <c r="M19" s="7" t="str">
         <f>IF(_outCoke_day_hour!K15="","",_outCoke_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="16" t="str">
+      <c r="N19" s="7" t="str">
         <f>IF(_outCoke_day_hour!L15="","",_outCoke_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="16" t="str">
+      <c r="O19" s="7" t="str">
         <f>IF(_outCoke_day_hour!M15="","",_outCoke_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="28" t="str">
+      <c r="P19" s="12" t="str">
         <f>IF(_outCoke_day_hour!N15="","",_outCoke_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="28" t="str">
+      <c r="Q19" s="12" t="str">
         <f>IF(_outCoke_day_hour!O15="","",_outCoke_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="36" t="str">
+      <c r="R19" s="16" t="str">
         <f>IF(_outCoke_day_hour!P15="","",_outCoke_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="37" t="str">
+      <c r="S19" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q15="","",_outCoke_day_hour!Q15)</f>
         <v/>
       </c>
@@ -7889,76 +7310,76 @@
       <c r="IS19" s="4"/>
       <c r="IT19" s="4"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="20" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="15">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="C20" s="16" t="str">
+      <c r="B20" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C20" s="7" t="str">
         <f>IF(_outCoke_day_hour!A16="","",_outCoke_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="7" t="str">
         <f>IF(_outCoke_day_hour!B16="","",_outCoke_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="7" t="str">
         <f>IF(_outCoke_day_hour!C16="","",_outCoke_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="7" t="str">
         <f>IF(_outCoke_day_hour!D16="","",_outCoke_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="16" t="str">
+      <c r="G20" s="7" t="str">
         <f>IF(_outCoke_day_hour!E16="","",_outCoke_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="16" t="str">
+      <c r="H20" s="7" t="str">
         <f>IF(_outCoke_day_hour!F16="","",_outCoke_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="16" t="str">
+      <c r="I20" s="7" t="str">
         <f>IF(_outCoke_day_hour!G16="","",_outCoke_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="16" t="str">
+      <c r="J20" s="7" t="str">
         <f>IF(_outCoke_day_hour!H16="","",_outCoke_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="16" t="str">
+      <c r="K20" s="7" t="str">
         <f>IF(_outCoke_day_hour!I16="","",_outCoke_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="16" t="str">
+      <c r="L20" s="7" t="str">
         <f>IF(_outCoke_day_hour!J16="","",_outCoke_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="16" t="str">
+      <c r="M20" s="7" t="str">
         <f>IF(_outCoke_day_hour!K16="","",_outCoke_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="16" t="str">
+      <c r="N20" s="7" t="str">
         <f>IF(_outCoke_day_hour!L16="","",_outCoke_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="16" t="str">
+      <c r="O20" s="7" t="str">
         <f>IF(_outCoke_day_hour!M16="","",_outCoke_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="28" t="str">
+      <c r="P20" s="12" t="str">
         <f>IF(_outCoke_day_hour!N16="","",_outCoke_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="28" t="str">
+      <c r="Q20" s="12" t="str">
         <f>IF(_outCoke_day_hour!O16="","",_outCoke_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="28" t="str">
+      <c r="R20" s="12" t="str">
         <f>IF(_outCoke_day_hour!P16="","",_outCoke_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="37" t="str">
+      <c r="S20" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q16="","",_outCoke_day_hour!Q16)</f>
         <v/>
       </c>
@@ -8198,76 +7619,76 @@
       <c r="IS20" s="4"/>
       <c r="IT20" s="4"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="21" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="15">
+      <c r="B21" s="6">
         <v>0.625</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" s="7" t="str">
         <f>IF(_outCoke_day_hour!A17="","",_outCoke_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" s="7" t="str">
         <f>IF(_outCoke_day_hour!B17="","",_outCoke_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="7" t="str">
         <f>IF(_outCoke_day_hour!C17="","",_outCoke_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" s="7" t="str">
         <f>IF(_outCoke_day_hour!D17="","",_outCoke_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="16" t="str">
+      <c r="G21" s="7" t="str">
         <f>IF(_outCoke_day_hour!E17="","",_outCoke_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="16" t="str">
+      <c r="H21" s="7" t="str">
         <f>IF(_outCoke_day_hour!F17="","",_outCoke_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="16" t="str">
+      <c r="I21" s="7" t="str">
         <f>IF(_outCoke_day_hour!G17="","",_outCoke_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="16" t="str">
+      <c r="J21" s="7" t="str">
         <f>IF(_outCoke_day_hour!H17="","",_outCoke_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="7" t="str">
         <f>IF(_outCoke_day_hour!I17="","",_outCoke_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="16" t="str">
+      <c r="L21" s="7" t="str">
         <f>IF(_outCoke_day_hour!J17="","",_outCoke_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="16" t="str">
+      <c r="M21" s="7" t="str">
         <f>IF(_outCoke_day_hour!K17="","",_outCoke_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="16" t="str">
+      <c r="N21" s="7" t="str">
         <f>IF(_outCoke_day_hour!L17="","",_outCoke_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="16" t="str">
+      <c r="O21" s="7" t="str">
         <f>IF(_outCoke_day_hour!M17="","",_outCoke_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="28" t="str">
+      <c r="P21" s="12" t="str">
         <f>IF(_outCoke_day_hour!N17="","",_outCoke_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="28" t="str">
+      <c r="Q21" s="12" t="str">
         <f>IF(_outCoke_day_hour!O17="","",_outCoke_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="28" t="str">
+      <c r="R21" s="12" t="str">
         <f>IF(_outCoke_day_hour!P17="","",_outCoke_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="37" t="str">
+      <c r="S21" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q17="","",_outCoke_day_hour!Q17)</f>
         <v/>
       </c>
@@ -8507,76 +7928,76 @@
       <c r="IS21" s="4"/>
       <c r="IT21" s="4"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="22" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="15">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="C22" s="16" t="str">
+      <c r="B22" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C22" s="7" t="str">
         <f>IF(_outCoke_day_hour!A18="","",_outCoke_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" s="7" t="str">
         <f>IF(_outCoke_day_hour!B18="","",_outCoke_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="7" t="str">
         <f>IF(_outCoke_day_hour!C18="","",_outCoke_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" s="7" t="str">
         <f>IF(_outCoke_day_hour!D18="","",_outCoke_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="16" t="str">
+      <c r="G22" s="7" t="str">
         <f>IF(_outCoke_day_hour!E18="","",_outCoke_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="16" t="str">
+      <c r="H22" s="7" t="str">
         <f>IF(_outCoke_day_hour!F18="","",_outCoke_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="16" t="str">
+      <c r="I22" s="7" t="str">
         <f>IF(_outCoke_day_hour!G18="","",_outCoke_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="16" t="str">
+      <c r="J22" s="7" t="str">
         <f>IF(_outCoke_day_hour!H18="","",_outCoke_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="16" t="str">
+      <c r="K22" s="7" t="str">
         <f>IF(_outCoke_day_hour!I18="","",_outCoke_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="16" t="str">
+      <c r="L22" s="7" t="str">
         <f>IF(_outCoke_day_hour!J18="","",_outCoke_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="16" t="str">
+      <c r="M22" s="7" t="str">
         <f>IF(_outCoke_day_hour!K18="","",_outCoke_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="16" t="str">
+      <c r="N22" s="7" t="str">
         <f>IF(_outCoke_day_hour!L18="","",_outCoke_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="16" t="str">
+      <c r="O22" s="7" t="str">
         <f>IF(_outCoke_day_hour!M18="","",_outCoke_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="28" t="str">
+      <c r="P22" s="12" t="str">
         <f>IF(_outCoke_day_hour!N18="","",_outCoke_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="28" t="str">
+      <c r="Q22" s="12" t="str">
         <f>IF(_outCoke_day_hour!O18="","",_outCoke_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="28" t="str">
+      <c r="R22" s="12" t="str">
         <f>IF(_outCoke_day_hour!P18="","",_outCoke_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="37" t="str">
+      <c r="S22" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q18="","",_outCoke_day_hour!Q18)</f>
         <v/>
       </c>
@@ -8816,76 +8237,76 @@
       <c r="IS22" s="4"/>
       <c r="IT22" s="4"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="23" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="15">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="C23" s="16" t="str">
+      <c r="B23" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C23" s="7" t="str">
         <f>IF(_outCoke_day_hour!A19="","",_outCoke_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" s="7" t="str">
         <f>IF(_outCoke_day_hour!B19="","",_outCoke_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="7" t="str">
         <f>IF(_outCoke_day_hour!C19="","",_outCoke_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" s="7" t="str">
         <f>IF(_outCoke_day_hour!D19="","",_outCoke_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="16" t="str">
+      <c r="G23" s="7" t="str">
         <f>IF(_outCoke_day_hour!E19="","",_outCoke_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="16" t="str">
+      <c r="H23" s="7" t="str">
         <f>IF(_outCoke_day_hour!F19="","",_outCoke_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="16" t="str">
+      <c r="I23" s="7" t="str">
         <f>IF(_outCoke_day_hour!G19="","",_outCoke_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="16" t="str">
+      <c r="J23" s="7" t="str">
         <f>IF(_outCoke_day_hour!H19="","",_outCoke_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="16" t="str">
+      <c r="K23" s="7" t="str">
         <f>IF(_outCoke_day_hour!I19="","",_outCoke_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="16" t="str">
+      <c r="L23" s="7" t="str">
         <f>IF(_outCoke_day_hour!J19="","",_outCoke_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="16" t="str">
+      <c r="M23" s="7" t="str">
         <f>IF(_outCoke_day_hour!K19="","",_outCoke_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="16" t="str">
+      <c r="N23" s="7" t="str">
         <f>IF(_outCoke_day_hour!L19="","",_outCoke_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="16" t="str">
+      <c r="O23" s="7" t="str">
         <f>IF(_outCoke_day_hour!M19="","",_outCoke_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="28" t="str">
+      <c r="P23" s="12" t="str">
         <f>IF(_outCoke_day_hour!N19="","",_outCoke_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="28" t="str">
+      <c r="Q23" s="12" t="str">
         <f>IF(_outCoke_day_hour!O19="","",_outCoke_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="28" t="str">
+      <c r="R23" s="12" t="str">
         <f>IF(_outCoke_day_hour!P19="","",_outCoke_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="37" t="str">
+      <c r="S23" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q19="","",_outCoke_day_hour!Q19)</f>
         <v/>
       </c>
@@ -9125,76 +8546,76 @@
       <c r="IS23" s="4"/>
       <c r="IT23" s="4"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="24" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="15">
+      <c r="B24" s="6">
         <v>0.75</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" s="7" t="str">
         <f>IF(_outCoke_day_hour!A20="","",_outCoke_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" s="7" t="str">
         <f>IF(_outCoke_day_hour!B20="","",_outCoke_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" s="7" t="str">
         <f>IF(_outCoke_day_hour!C20="","",_outCoke_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" s="7" t="str">
         <f>IF(_outCoke_day_hour!D20="","",_outCoke_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="16" t="str">
+      <c r="G24" s="7" t="str">
         <f>IF(_outCoke_day_hour!E20="","",_outCoke_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="16" t="str">
+      <c r="H24" s="7" t="str">
         <f>IF(_outCoke_day_hour!F20="","",_outCoke_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="16" t="str">
+      <c r="I24" s="7" t="str">
         <f>IF(_outCoke_day_hour!G20="","",_outCoke_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="16" t="str">
+      <c r="J24" s="7" t="str">
         <f>IF(_outCoke_day_hour!H20="","",_outCoke_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="16" t="str">
+      <c r="K24" s="7" t="str">
         <f>IF(_outCoke_day_hour!I20="","",_outCoke_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="16" t="str">
+      <c r="L24" s="7" t="str">
         <f>IF(_outCoke_day_hour!J20="","",_outCoke_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="16" t="str">
+      <c r="M24" s="7" t="str">
         <f>IF(_outCoke_day_hour!K20="","",_outCoke_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="16" t="str">
+      <c r="N24" s="7" t="str">
         <f>IF(_outCoke_day_hour!L20="","",_outCoke_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="16" t="str">
+      <c r="O24" s="7" t="str">
         <f>IF(_outCoke_day_hour!M20="","",_outCoke_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="28" t="str">
+      <c r="P24" s="12" t="str">
         <f>IF(_outCoke_day_hour!N20="","",_outCoke_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="28" t="str">
+      <c r="Q24" s="12" t="str">
         <f>IF(_outCoke_day_hour!O20="","",_outCoke_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="28" t="str">
+      <c r="R24" s="12" t="str">
         <f>IF(_outCoke_day_hour!P20="","",_outCoke_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="37" t="str">
+      <c r="S24" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q20="","",_outCoke_day_hour!Q20)</f>
         <v/>
       </c>
@@ -9434,76 +8855,76 @@
       <c r="IS24" s="4"/>
       <c r="IT24" s="4"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="25" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C25" s="16" t="str">
+      <c r="B25" s="6">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C25" s="7" t="str">
         <f>IF(_outCoke_day_hour!A21="","",_outCoke_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" s="7" t="str">
         <f>IF(_outCoke_day_hour!B21="","",_outCoke_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="7" t="str">
         <f>IF(_outCoke_day_hour!C21="","",_outCoke_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" s="7" t="str">
         <f>IF(_outCoke_day_hour!D21="","",_outCoke_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="16" t="str">
+      <c r="G25" s="7" t="str">
         <f>IF(_outCoke_day_hour!E21="","",_outCoke_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="16" t="str">
+      <c r="H25" s="7" t="str">
         <f>IF(_outCoke_day_hour!F21="","",_outCoke_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="16" t="str">
+      <c r="I25" s="7" t="str">
         <f>IF(_outCoke_day_hour!G21="","",_outCoke_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="16" t="str">
+      <c r="J25" s="7" t="str">
         <f>IF(_outCoke_day_hour!H21="","",_outCoke_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="16" t="str">
+      <c r="K25" s="7" t="str">
         <f>IF(_outCoke_day_hour!I21="","",_outCoke_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="16" t="str">
+      <c r="L25" s="7" t="str">
         <f>IF(_outCoke_day_hour!J21="","",_outCoke_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="16" t="str">
+      <c r="M25" s="7" t="str">
         <f>IF(_outCoke_day_hour!K21="","",_outCoke_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="16" t="str">
+      <c r="N25" s="7" t="str">
         <f>IF(_outCoke_day_hour!L21="","",_outCoke_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="16" t="str">
+      <c r="O25" s="7" t="str">
         <f>IF(_outCoke_day_hour!M21="","",_outCoke_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="28" t="str">
+      <c r="P25" s="12" t="str">
         <f>IF(_outCoke_day_hour!N21="","",_outCoke_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="28" t="str">
+      <c r="Q25" s="12" t="str">
         <f>IF(_outCoke_day_hour!O21="","",_outCoke_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="28" t="str">
+      <c r="R25" s="12" t="str">
         <f>IF(_outCoke_day_hour!P21="","",_outCoke_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="37" t="str">
+      <c r="S25" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q21="","",_outCoke_day_hour!Q21)</f>
         <v/>
       </c>
@@ -9743,76 +9164,76 @@
       <c r="IS25" s="4"/>
       <c r="IT25" s="4"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="26" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="15">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C26" s="16" t="str">
+      <c r="B26" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C26" s="7" t="str">
         <f>IF(_outCoke_day_hour!A22="","",_outCoke_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" s="7" t="str">
         <f>IF(_outCoke_day_hour!B22="","",_outCoke_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="7" t="str">
         <f>IF(_outCoke_day_hour!C22="","",_outCoke_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" s="7" t="str">
         <f>IF(_outCoke_day_hour!D22="","",_outCoke_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="16" t="str">
+      <c r="G26" s="7" t="str">
         <f>IF(_outCoke_day_hour!E22="","",_outCoke_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="16" t="str">
+      <c r="H26" s="7" t="str">
         <f>IF(_outCoke_day_hour!F22="","",_outCoke_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="16" t="str">
+      <c r="I26" s="7" t="str">
         <f>IF(_outCoke_day_hour!G22="","",_outCoke_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="16" t="str">
+      <c r="J26" s="7" t="str">
         <f>IF(_outCoke_day_hour!H22="","",_outCoke_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="16" t="str">
+      <c r="K26" s="7" t="str">
         <f>IF(_outCoke_day_hour!I22="","",_outCoke_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="16" t="str">
+      <c r="L26" s="7" t="str">
         <f>IF(_outCoke_day_hour!J22="","",_outCoke_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="16" t="str">
+      <c r="M26" s="7" t="str">
         <f>IF(_outCoke_day_hour!K22="","",_outCoke_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="16" t="str">
+      <c r="N26" s="7" t="str">
         <f>IF(_outCoke_day_hour!L22="","",_outCoke_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="16" t="str">
+      <c r="O26" s="7" t="str">
         <f>IF(_outCoke_day_hour!M22="","",_outCoke_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="28" t="str">
+      <c r="P26" s="12" t="str">
         <f>IF(_outCoke_day_hour!N22="","",_outCoke_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="28" t="str">
+      <c r="Q26" s="12" t="str">
         <f>IF(_outCoke_day_hour!O22="","",_outCoke_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="28" t="str">
+      <c r="R26" s="12" t="str">
         <f>IF(_outCoke_day_hour!P22="","",_outCoke_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="37" t="str">
+      <c r="S26" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q22="","",_outCoke_day_hour!Q22)</f>
         <v/>
       </c>
@@ -10052,76 +9473,76 @@
       <c r="IS26" s="4"/>
       <c r="IT26" s="4"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="27" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="15">
+      <c r="B27" s="6">
         <v>0.875</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="7" t="str">
         <f>IF(_outCoke_day_hour!A23="","",_outCoke_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" s="7" t="str">
         <f>IF(_outCoke_day_hour!B23="","",_outCoke_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" s="7" t="str">
         <f>IF(_outCoke_day_hour!C23="","",_outCoke_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" s="7" t="str">
         <f>IF(_outCoke_day_hour!D23="","",_outCoke_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="16" t="str">
+      <c r="G27" s="7" t="str">
         <f>IF(_outCoke_day_hour!E23="","",_outCoke_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="16" t="str">
+      <c r="H27" s="7" t="str">
         <f>IF(_outCoke_day_hour!F23="","",_outCoke_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="7" t="str">
         <f>IF(_outCoke_day_hour!G23="","",_outCoke_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="16" t="str">
+      <c r="J27" s="7" t="str">
         <f>IF(_outCoke_day_hour!H23="","",_outCoke_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="16" t="str">
+      <c r="K27" s="7" t="str">
         <f>IF(_outCoke_day_hour!I23="","",_outCoke_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="16" t="str">
+      <c r="L27" s="7" t="str">
         <f>IF(_outCoke_day_hour!J23="","",_outCoke_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="16" t="str">
+      <c r="M27" s="7" t="str">
         <f>IF(_outCoke_day_hour!K23="","",_outCoke_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="16" t="str">
+      <c r="N27" s="7" t="str">
         <f>IF(_outCoke_day_hour!L23="","",_outCoke_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="16" t="str">
+      <c r="O27" s="7" t="str">
         <f>IF(_outCoke_day_hour!M23="","",_outCoke_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="28" t="str">
+      <c r="P27" s="12" t="str">
         <f>IF(_outCoke_day_hour!N23="","",_outCoke_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="28" t="str">
+      <c r="Q27" s="12" t="str">
         <f>IF(_outCoke_day_hour!O23="","",_outCoke_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="28" t="str">
+      <c r="R27" s="12" t="str">
         <f>IF(_outCoke_day_hour!P23="","",_outCoke_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="37" t="str">
+      <c r="S27" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q23="","",_outCoke_day_hour!Q23)</f>
         <v/>
       </c>
@@ -10361,76 +9782,76 @@
       <c r="IS27" s="4"/>
       <c r="IT27" s="4"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="28" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="15">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C28" s="16" t="str">
+      <c r="B28" s="6">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C28" s="7" t="str">
         <f>IF(_outCoke_day_hour!A24="","",_outCoke_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" s="7" t="str">
         <f>IF(_outCoke_day_hour!B24="","",_outCoke_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" s="7" t="str">
         <f>IF(_outCoke_day_hour!C24="","",_outCoke_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" s="7" t="str">
         <f>IF(_outCoke_day_hour!D24="","",_outCoke_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="16" t="str">
+      <c r="G28" s="7" t="str">
         <f>IF(_outCoke_day_hour!E24="","",_outCoke_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="16" t="str">
+      <c r="H28" s="7" t="str">
         <f>IF(_outCoke_day_hour!F24="","",_outCoke_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="16" t="str">
+      <c r="I28" s="7" t="str">
         <f>IF(_outCoke_day_hour!G24="","",_outCoke_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="16" t="str">
+      <c r="J28" s="7" t="str">
         <f>IF(_outCoke_day_hour!H24="","",_outCoke_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="16" t="str">
+      <c r="K28" s="7" t="str">
         <f>IF(_outCoke_day_hour!I24="","",_outCoke_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="16" t="str">
+      <c r="L28" s="7" t="str">
         <f>IF(_outCoke_day_hour!J24="","",_outCoke_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="16" t="str">
+      <c r="M28" s="7" t="str">
         <f>IF(_outCoke_day_hour!K24="","",_outCoke_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="16" t="str">
+      <c r="N28" s="7" t="str">
         <f>IF(_outCoke_day_hour!L24="","",_outCoke_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="16" t="str">
+      <c r="O28" s="7" t="str">
         <f>IF(_outCoke_day_hour!M24="","",_outCoke_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="28" t="str">
+      <c r="P28" s="12" t="str">
         <f>IF(_outCoke_day_hour!N24="","",_outCoke_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="28" t="str">
+      <c r="Q28" s="12" t="str">
         <f>IF(_outCoke_day_hour!O24="","",_outCoke_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="28" t="str">
+      <c r="R28" s="12" t="str">
         <f>IF(_outCoke_day_hour!P24="","",_outCoke_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="37" t="str">
+      <c r="S28" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q24="","",_outCoke_day_hour!Q24)</f>
         <v/>
       </c>
@@ -10670,76 +10091,76 @@
       <c r="IS28" s="4"/>
       <c r="IT28" s="4"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="29" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="15">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C29" s="16" t="str">
+      <c r="B29" s="6">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C29" s="7" t="str">
         <f>IF(_outCoke_day_hour!A25="","",_outCoke_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="16" t="str">
+      <c r="D29" s="7" t="str">
         <f>IF(_outCoke_day_hour!B25="","",_outCoke_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="16" t="str">
+      <c r="E29" s="7" t="str">
         <f>IF(_outCoke_day_hour!C25="","",_outCoke_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
+      <c r="F29" s="7" t="str">
         <f>IF(_outCoke_day_hour!D25="","",_outCoke_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="16" t="str">
+      <c r="G29" s="7" t="str">
         <f>IF(_outCoke_day_hour!E25="","",_outCoke_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="16" t="str">
+      <c r="H29" s="7" t="str">
         <f>IF(_outCoke_day_hour!F25="","",_outCoke_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="16" t="str">
+      <c r="I29" s="7" t="str">
         <f>IF(_outCoke_day_hour!G25="","",_outCoke_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="16" t="str">
+      <c r="J29" s="7" t="str">
         <f>IF(_outCoke_day_hour!H25="","",_outCoke_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="16" t="str">
+      <c r="K29" s="7" t="str">
         <f>IF(_outCoke_day_hour!I25="","",_outCoke_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="16" t="str">
+      <c r="L29" s="7" t="str">
         <f>IF(_outCoke_day_hour!J25="","",_outCoke_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="16" t="str">
+      <c r="M29" s="7" t="str">
         <f>IF(_outCoke_day_hour!K25="","",_outCoke_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="16" t="str">
+      <c r="N29" s="7" t="str">
         <f>IF(_outCoke_day_hour!L25="","",_outCoke_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="16" t="str">
+      <c r="O29" s="7" t="str">
         <f>IF(_outCoke_day_hour!M25="","",_outCoke_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="28" t="str">
+      <c r="P29" s="12" t="str">
         <f>IF(_outCoke_day_hour!N25="","",_outCoke_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="28" t="str">
+      <c r="Q29" s="12" t="str">
         <f>IF(_outCoke_day_hour!O25="","",_outCoke_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="28" t="str">
+      <c r="R29" s="12" t="str">
         <f>IF(_outCoke_day_hour!P25="","",_outCoke_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="37" t="str">
+      <c r="S29" s="17" t="str">
         <f>IF(_outCoke_day_hour!Q25="","",_outCoke_day_hour!Q25)</f>
         <v/>
       </c>
@@ -10979,28 +10400,28 @@
       <c r="IS29" s="4"/>
       <c r="IT29" s="4"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="30" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="37"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="17"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -11237,28 +10658,28 @@
       <c r="IS30" s="4"/>
       <c r="IT30" s="4"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="31" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="37"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="17"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -11495,28 +10916,28 @@
       <c r="IS31" s="4"/>
       <c r="IT31" s="4"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="32" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="37"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="17"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -11753,28 +11174,28 @@
       <c r="IS32" s="4"/>
       <c r="IT32" s="4"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
+    <row r="33" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="37"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="17"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -12011,32 +11432,32 @@
       <c r="IS33" s="4"/>
       <c r="IT33" s="4"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="63" customHeight="1" spans="1:254">
+    <row r="34" spans="1:254" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="20" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="20" t="s">
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="22"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="25"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -12273,34 +11694,40 @@
       <c r="IS34" s="4"/>
       <c r="IT34" s="4"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="1:254" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="23" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="23" t="s">
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="25"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="O2:S2"/>
@@ -12308,12 +11735,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:P3"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -12322,27 +11743,26 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="63" spans="1:17">
+    <row r="1" spans="1:17" ht="63" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -12396,23 +11816,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>6&amp;7#焦 出焦除尘</t>
   </si>
@@ -32,7 +32,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机轴温
@@ -44,7 +43,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机定子温度
@@ -54,7 +52,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>A</t>
     </r>
@@ -62,7 +60,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -73,7 +70,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电机电流
@@ -83,7 +79,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>A</t>
     </r>
@@ -91,7 +87,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -106,7 +101,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>冷却水流量
@@ -116,7 +110,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>m</t>
     </r>
@@ -125,7 +119,7 @@
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -133,7 +127,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -141,7 +135,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -152,7 +145,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>风机轴温</t>
@@ -161,7 +153,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  
 </t>
@@ -170,7 +162,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（℃）</t>
@@ -181,7 +172,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>风机轴承振幅</t>
@@ -190,7 +180,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">       
 </t>
@@ -199,7 +189,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -208,7 +197,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>mm/s</t>
     </r>
@@ -216,7 +205,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -227,7 +215,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>除尘器
@@ -240,7 +227,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>除尘压差
@@ -250,7 +236,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Kpa</t>
     </r>
@@ -258,7 +244,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -269,7 +254,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>储气罐压力</t>
@@ -278,7 +262,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
 </t>
@@ -287,7 +271,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -296,7 +279,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Mpa</t>
     </r>
@@ -304,7 +287,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -315,7 +297,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1
 </t>
@@ -324,7 +306,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（驱动端）</t>
@@ -335,7 +316,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2
 </t>
@@ -344,7 +325,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（非驱动端）</t>
@@ -355,7 +335,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -363,7 +343,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（驱动端）</t>
@@ -374,7 +353,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1A
 </t>
@@ -383,7 +362,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（径向驱动端）</t>
@@ -394,7 +372,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2A
 </t>
@@ -403,7 +381,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（轴向非驱动端）</t>
@@ -414,7 +391,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1B
 </t>
@@ -423,7 +400,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（轴向驱动端）</t>
@@ -434,7 +410,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2B
 </t>
@@ -443,7 +419,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（径向非驱动端）</t>
@@ -520,7 +495,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -528,7 +503,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜</t>
@@ -538,7 +512,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -547,7 +520,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -557,7 +530,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -565,7 +538,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -575,7 +547,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -584,7 +555,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -594,7 +565,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -602,7 +573,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -612,7 +582,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -621,7 +590,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -631,7 +600,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -639,7 +608,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -648,7 +616,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -656,7 +624,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -666,8 +633,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,78 +651,213 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="22"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -762,8 +870,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -791,7 +1085,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,6 +1267,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1023,9 +1326,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
@@ -1035,108 +1580,155 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="49" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1147,7 +1739,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1161,14 +1753,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13662025" y="7887970"/>
+          <a:off x="13662025" y="7926070"/>
           <a:ext cx="4516120" cy="763270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1595,19 +2187,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:IT35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
@@ -1617,28 +2209,28 @@
     <col min="255" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" ht="27" spans="1:254">
       <c r="A1" s="4"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
@@ -1875,31 +2467,31 @@
       <c r="IS1" s="4"/>
       <c r="IT1" s="4"/>
     </row>
-    <row r="2" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" ht="19.5" spans="1:254">
       <c r="A2" s="4"/>
-      <c r="B2" s="37">
+      <c r="B2" s="6">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="19" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -2136,46 +2728,46 @@
       <c r="IS2" s="4"/>
       <c r="IT2" s="4"/>
     </row>
-    <row r="3" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="15" customHeight="1" spans="1:254">
       <c r="A3" s="4"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="31" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="31" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T3" s="4"/>
@@ -2414,9 +3006,9 @@
       <c r="IS3" s="4"/>
       <c r="IT3" s="4"/>
     </row>
-    <row r="4" spans="1:254" ht="36.75" x14ac:dyDescent="0.15">
+    <row r="4" ht="36.75" spans="1:254">
       <c r="A4" s="4"/>
-      <c r="B4" s="30"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2432,9 +3024,9 @@
       <c r="G4" s="3">
         <v>3</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2453,10 +3045,10 @@
       <c r="P4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="33"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -2692,9 +3284,9 @@
       <c r="IS4" s="4"/>
       <c r="IT4" s="4"/>
     </row>
-    <row r="5" spans="1:254" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="5" ht="78.75" spans="1:254">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2984,9 +3576,9 @@
       <c r="IS5" s="4"/>
       <c r="IT5" s="4"/>
     </row>
-    <row r="6" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" ht="15.75" spans="1:254">
       <c r="A6" s="4"/>
-      <c r="B6" s="6">
+      <c r="B6" s="15">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="str">
@@ -3013,7 +3605,7 @@
         <f>IF(_outCoke_day_hour!F2="","",_outCoke_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="11" t="str">
+      <c r="I6" s="27" t="str">
         <f>IF(_outCoke_day_hour!G2="","",_outCoke_day_hour!G2)</f>
         <v/>
       </c>
@@ -3049,11 +3641,11 @@
         <f>IF(_outCoke_day_hour!O2="","",_outCoke_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="14" t="str">
+      <c r="R6" s="34" t="str">
         <f>IF(_outCoke_day_hour!P2="","",_outCoke_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="15" t="str">
+      <c r="S6" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q2="","",_outCoke_day_hour!Q2)</f>
         <v/>
       </c>
@@ -3293,10 +3885,10 @@
       <c r="IS6" s="4"/>
       <c r="IT6" s="4"/>
     </row>
-    <row r="7" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" ht="15.75" spans="1:254">
       <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <v>4.1666666666666699E-2</v>
+      <c r="B7" s="15">
+        <v>0.0416666666666667</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IF(_outCoke_day_hour!A3="","",_outCoke_day_hour!A3)</f>
@@ -3322,7 +3914,7 @@
         <f>IF(_outCoke_day_hour!F3="","",_outCoke_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="11" t="str">
+      <c r="I7" s="27" t="str">
         <f>IF(_outCoke_day_hour!G3="","",_outCoke_day_hour!G3)</f>
         <v/>
       </c>
@@ -3358,11 +3950,11 @@
         <f>IF(_outCoke_day_hour!O3="","",_outCoke_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="16" t="str">
+      <c r="R7" s="36" t="str">
         <f>IF(_outCoke_day_hour!P3="","",_outCoke_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="15" t="str">
+      <c r="S7" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q3="","",_outCoke_day_hour!Q3)</f>
         <v/>
       </c>
@@ -3602,10 +4194,10 @@
       <c r="IS7" s="4"/>
       <c r="IT7" s="4"/>
     </row>
-    <row r="8" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" ht="15.75" spans="1:254">
       <c r="A8" s="4"/>
-      <c r="B8" s="6">
-        <v>8.3333333333333301E-2</v>
+      <c r="B8" s="15">
+        <v>0.0833333333333333</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IF(_outCoke_day_hour!A4="","",_outCoke_day_hour!A4)</f>
@@ -3631,7 +4223,7 @@
         <f>IF(_outCoke_day_hour!F4="","",_outCoke_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="11" t="str">
+      <c r="I8" s="27" t="str">
         <f>IF(_outCoke_day_hour!G4="","",_outCoke_day_hour!G4)</f>
         <v/>
       </c>
@@ -3671,7 +4263,7 @@
         <f>IF(_outCoke_day_hour!P4="","",_outCoke_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="15" t="str">
+      <c r="S8" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q4="","",_outCoke_day_hour!Q4)</f>
         <v/>
       </c>
@@ -3911,9 +4503,9 @@
       <c r="IS8" s="4"/>
       <c r="IT8" s="4"/>
     </row>
-    <row r="9" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="9" ht="15.75" spans="1:254">
       <c r="A9" s="4"/>
-      <c r="B9" s="6">
+      <c r="B9" s="15">
         <v>0.125</v>
       </c>
       <c r="C9" s="2" t="str">
@@ -3940,7 +4532,7 @@
         <f>IF(_outCoke_day_hour!F5="","",_outCoke_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="11" t="str">
+      <c r="I9" s="27" t="str">
         <f>IF(_outCoke_day_hour!G5="","",_outCoke_day_hour!G5)</f>
         <v/>
       </c>
@@ -3980,7 +4572,7 @@
         <f>IF(_outCoke_day_hour!P5="","",_outCoke_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="15" t="str">
+      <c r="S9" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q5="","",_outCoke_day_hour!Q5)</f>
         <v/>
       </c>
@@ -4220,10 +4812,10 @@
       <c r="IS9" s="4"/>
       <c r="IT9" s="4"/>
     </row>
-    <row r="10" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="10" ht="15.75" spans="1:254">
       <c r="A10" s="4"/>
-      <c r="B10" s="6">
-        <v>0.16666666666666699</v>
+      <c r="B10" s="15">
+        <v>0.166666666666667</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IF(_outCoke_day_hour!A6="","",_outCoke_day_hour!A6)</f>
@@ -4249,7 +4841,7 @@
         <f>IF(_outCoke_day_hour!F6="","",_outCoke_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="11" t="str">
+      <c r="I10" s="27" t="str">
         <f>IF(_outCoke_day_hour!G6="","",_outCoke_day_hour!G6)</f>
         <v/>
       </c>
@@ -4289,7 +4881,7 @@
         <f>IF(_outCoke_day_hour!P6="","",_outCoke_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="15" t="str">
+      <c r="S10" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q6="","",_outCoke_day_hour!Q6)</f>
         <v/>
       </c>
@@ -4529,10 +5121,10 @@
       <c r="IS10" s="4"/>
       <c r="IT10" s="4"/>
     </row>
-    <row r="11" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="11" ht="15.75" spans="1:254">
       <c r="A11" s="4"/>
-      <c r="B11" s="6">
-        <v>0.20833333333333301</v>
+      <c r="B11" s="15">
+        <v>0.208333333333333</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IF(_outCoke_day_hour!A7="","",_outCoke_day_hour!A7)</f>
@@ -4558,7 +5150,7 @@
         <f>IF(_outCoke_day_hour!F7="","",_outCoke_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="11" t="str">
+      <c r="I11" s="27" t="str">
         <f>IF(_outCoke_day_hour!G7="","",_outCoke_day_hour!G7)</f>
         <v/>
       </c>
@@ -4598,7 +5190,7 @@
         <f>IF(_outCoke_day_hour!P7="","",_outCoke_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="15" t="str">
+      <c r="S11" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q7="","",_outCoke_day_hour!Q7)</f>
         <v/>
       </c>
@@ -4838,9 +5430,9 @@
       <c r="IS11" s="4"/>
       <c r="IT11" s="4"/>
     </row>
-    <row r="12" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="12" ht="15.75" spans="1:254">
       <c r="A12" s="4"/>
-      <c r="B12" s="6">
+      <c r="B12" s="15">
         <v>0.25</v>
       </c>
       <c r="C12" s="2" t="str">
@@ -4867,7 +5459,7 @@
         <f>IF(_outCoke_day_hour!F8="","",_outCoke_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="11" t="str">
+      <c r="I12" s="27" t="str">
         <f>IF(_outCoke_day_hour!G8="","",_outCoke_day_hour!G8)</f>
         <v/>
       </c>
@@ -4907,7 +5499,7 @@
         <f>IF(_outCoke_day_hour!P8="","",_outCoke_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="15" t="str">
+      <c r="S12" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q8="","",_outCoke_day_hour!Q8)</f>
         <v/>
       </c>
@@ -5147,10 +5739,10 @@
       <c r="IS12" s="4"/>
       <c r="IT12" s="4"/>
     </row>
-    <row r="13" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="13" ht="15.75" spans="1:254">
       <c r="A13" s="4"/>
-      <c r="B13" s="6">
-        <v>0.29166666666666702</v>
+      <c r="B13" s="15">
+        <v>0.291666666666667</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IF(_outCoke_day_hour!A9="","",_outCoke_day_hour!A9)</f>
@@ -5176,7 +5768,7 @@
         <f>IF(_outCoke_day_hour!F9="","",_outCoke_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="11" t="str">
+      <c r="I13" s="27" t="str">
         <f>IF(_outCoke_day_hour!G9="","",_outCoke_day_hour!G9)</f>
         <v/>
       </c>
@@ -5216,7 +5808,7 @@
         <f>IF(_outCoke_day_hour!P9="","",_outCoke_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="15" t="str">
+      <c r="S13" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q9="","",_outCoke_day_hour!Q9)</f>
         <v/>
       </c>
@@ -5456,10 +6048,10 @@
       <c r="IS13" s="4"/>
       <c r="IT13" s="4"/>
     </row>
-    <row r="14" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="14" ht="15.75" spans="1:254">
       <c r="A14" s="4"/>
-      <c r="B14" s="6">
-        <v>0.33333333333333298</v>
+      <c r="B14" s="15">
+        <v>0.333333333333333</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IF(_outCoke_day_hour!A10="","",_outCoke_day_hour!A10)</f>
@@ -5485,7 +6077,7 @@
         <f>IF(_outCoke_day_hour!F10="","",_outCoke_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="11" t="str">
+      <c r="I14" s="27" t="str">
         <f>IF(_outCoke_day_hour!G10="","",_outCoke_day_hour!G10)</f>
         <v/>
       </c>
@@ -5525,7 +6117,7 @@
         <f>IF(_outCoke_day_hour!P10="","",_outCoke_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="15" t="str">
+      <c r="S14" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q10="","",_outCoke_day_hour!Q10)</f>
         <v/>
       </c>
@@ -5765,9 +6357,9 @@
       <c r="IS14" s="4"/>
       <c r="IT14" s="4"/>
     </row>
-    <row r="15" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="15" ht="15.75" spans="1:254">
       <c r="A15" s="4"/>
-      <c r="B15" s="6">
+      <c r="B15" s="15">
         <v>0.375</v>
       </c>
       <c r="C15" s="2" t="str">
@@ -5794,7 +6386,7 @@
         <f>IF(_outCoke_day_hour!F11="","",_outCoke_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="11" t="str">
+      <c r="I15" s="27" t="str">
         <f>IF(_outCoke_day_hour!G11="","",_outCoke_day_hour!G11)</f>
         <v/>
       </c>
@@ -5834,7 +6426,7 @@
         <f>IF(_outCoke_day_hour!P11="","",_outCoke_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="str">
+      <c r="S15" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q11="","",_outCoke_day_hour!Q11)</f>
         <v/>
       </c>
@@ -6074,10 +6666,10 @@
       <c r="IS15" s="4"/>
       <c r="IT15" s="4"/>
     </row>
-    <row r="16" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="16" ht="15.75" spans="1:254">
       <c r="A16" s="4"/>
-      <c r="B16" s="6">
-        <v>0.41666666666666702</v>
+      <c r="B16" s="15">
+        <v>0.416666666666667</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(_outCoke_day_hour!A12="","",_outCoke_day_hour!A12)</f>
@@ -6103,7 +6695,7 @@
         <f>IF(_outCoke_day_hour!F12="","",_outCoke_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="11" t="str">
+      <c r="I16" s="27" t="str">
         <f>IF(_outCoke_day_hour!G12="","",_outCoke_day_hour!G12)</f>
         <v/>
       </c>
@@ -6143,7 +6735,7 @@
         <f>IF(_outCoke_day_hour!P12="","",_outCoke_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="str">
+      <c r="S16" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q12="","",_outCoke_day_hour!Q12)</f>
         <v/>
       </c>
@@ -6383,10 +6975,10 @@
       <c r="IS16" s="4"/>
       <c r="IT16" s="4"/>
     </row>
-    <row r="17" spans="1:254" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="17" ht="15.75" spans="1:254">
       <c r="A17" s="4"/>
-      <c r="B17" s="6">
-        <v>0.45833333333333298</v>
+      <c r="B17" s="15">
+        <v>0.458333333333333</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>IF(_outCoke_day_hour!A13="","",_outCoke_day_hour!A13)</f>
@@ -6412,7 +7004,7 @@
         <f>IF(_outCoke_day_hour!F13="","",_outCoke_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="11" t="str">
+      <c r="I17" s="27" t="str">
         <f>IF(_outCoke_day_hour!G13="","",_outCoke_day_hour!G13)</f>
         <v/>
       </c>
@@ -6452,7 +7044,7 @@
         <f>IF(_outCoke_day_hour!P13="","",_outCoke_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="str">
+      <c r="S17" s="35" t="str">
         <f>IF(_outCoke_day_hour!Q13="","",_outCoke_day_hour!Q13)</f>
         <v/>
       </c>
@@ -6692,76 +7284,76 @@
       <c r="IS17" s="4"/>
       <c r="IT17" s="4"/>
     </row>
-    <row r="18" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="15.95" customHeight="1" spans="1:254">
       <c r="A18" s="4"/>
-      <c r="B18" s="6">
+      <c r="B18" s="15">
         <v>0.5</v>
       </c>
-      <c r="C18" s="7" t="str">
+      <c r="C18" s="16" t="str">
         <f>IF(_outCoke_day_hour!A14="","",_outCoke_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="D18" s="7" t="str">
+      <c r="D18" s="16" t="str">
         <f>IF(_outCoke_day_hour!B14="","",_outCoke_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="E18" s="7" t="str">
+      <c r="E18" s="16" t="str">
         <f>IF(_outCoke_day_hour!C14="","",_outCoke_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="F18" s="7" t="str">
+      <c r="F18" s="16" t="str">
         <f>IF(_outCoke_day_hour!D14="","",_outCoke_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="G18" s="7" t="str">
+      <c r="G18" s="16" t="str">
         <f>IF(_outCoke_day_hour!E14="","",_outCoke_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="H18" s="7" t="str">
+      <c r="H18" s="16" t="str">
         <f>IF(_outCoke_day_hour!F14="","",_outCoke_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="I18" s="7" t="str">
+      <c r="I18" s="16" t="str">
         <f>IF(_outCoke_day_hour!G14="","",_outCoke_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="J18" s="7" t="str">
+      <c r="J18" s="16" t="str">
         <f>IF(_outCoke_day_hour!H14="","",_outCoke_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="K18" s="7" t="str">
+      <c r="K18" s="16" t="str">
         <f>IF(_outCoke_day_hour!I14="","",_outCoke_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="L18" s="7" t="str">
+      <c r="L18" s="16" t="str">
         <f>IF(_outCoke_day_hour!J14="","",_outCoke_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="M18" s="7" t="str">
+      <c r="M18" s="16" t="str">
         <f>IF(_outCoke_day_hour!K14="","",_outCoke_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="N18" s="7" t="str">
+      <c r="N18" s="16" t="str">
         <f>IF(_outCoke_day_hour!L14="","",_outCoke_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="O18" s="7" t="str">
+      <c r="O18" s="16" t="str">
         <f>IF(_outCoke_day_hour!M14="","",_outCoke_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="12" t="str">
+      <c r="P18" s="28" t="str">
         <f>IF(_outCoke_day_hour!N14="","",_outCoke_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="12" t="str">
+      <c r="Q18" s="28" t="str">
         <f>IF(_outCoke_day_hour!O14="","",_outCoke_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="14" t="str">
+      <c r="R18" s="34" t="str">
         <f>IF(_outCoke_day_hour!P14="","",_outCoke_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="str">
+      <c r="S18" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q14="","",_outCoke_day_hour!Q14)</f>
         <v/>
       </c>
@@ -7001,76 +7593,76 @@
       <c r="IS18" s="4"/>
       <c r="IT18" s="4"/>
     </row>
-    <row r="19" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="15.95" customHeight="1" spans="1:254">
       <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C19" s="7" t="str">
+      <c r="B19" s="15">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C19" s="16" t="str">
         <f>IF(_outCoke_day_hour!A15="","",_outCoke_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="D19" s="7" t="str">
+      <c r="D19" s="16" t="str">
         <f>IF(_outCoke_day_hour!B15="","",_outCoke_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="E19" s="7" t="str">
+      <c r="E19" s="16" t="str">
         <f>IF(_outCoke_day_hour!C15="","",_outCoke_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="F19" s="7" t="str">
+      <c r="F19" s="16" t="str">
         <f>IF(_outCoke_day_hour!D15="","",_outCoke_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="G19" s="7" t="str">
+      <c r="G19" s="16" t="str">
         <f>IF(_outCoke_day_hour!E15="","",_outCoke_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="H19" s="7" t="str">
+      <c r="H19" s="16" t="str">
         <f>IF(_outCoke_day_hour!F15="","",_outCoke_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="I19" s="7" t="str">
+      <c r="I19" s="16" t="str">
         <f>IF(_outCoke_day_hour!G15="","",_outCoke_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="J19" s="7" t="str">
+      <c r="J19" s="16" t="str">
         <f>IF(_outCoke_day_hour!H15="","",_outCoke_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="K19" s="7" t="str">
+      <c r="K19" s="16" t="str">
         <f>IF(_outCoke_day_hour!I15="","",_outCoke_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="L19" s="7" t="str">
+      <c r="L19" s="16" t="str">
         <f>IF(_outCoke_day_hour!J15="","",_outCoke_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="M19" s="7" t="str">
+      <c r="M19" s="16" t="str">
         <f>IF(_outCoke_day_hour!K15="","",_outCoke_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="N19" s="7" t="str">
+      <c r="N19" s="16" t="str">
         <f>IF(_outCoke_day_hour!L15="","",_outCoke_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="O19" s="7" t="str">
+      <c r="O19" s="16" t="str">
         <f>IF(_outCoke_day_hour!M15="","",_outCoke_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="12" t="str">
+      <c r="P19" s="28" t="str">
         <f>IF(_outCoke_day_hour!N15="","",_outCoke_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="12" t="str">
+      <c r="Q19" s="28" t="str">
         <f>IF(_outCoke_day_hour!O15="","",_outCoke_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="16" t="str">
+      <c r="R19" s="36" t="str">
         <f>IF(_outCoke_day_hour!P15="","",_outCoke_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="17" t="str">
+      <c r="S19" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q15="","",_outCoke_day_hour!Q15)</f>
         <v/>
       </c>
@@ -7310,76 +7902,76 @@
       <c r="IS19" s="4"/>
       <c r="IT19" s="4"/>
     </row>
-    <row r="20" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="15.95" customHeight="1" spans="1:254">
       <c r="A20" s="4"/>
-      <c r="B20" s="6">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C20" s="7" t="str">
+      <c r="B20" s="15">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C20" s="16" t="str">
         <f>IF(_outCoke_day_hour!A16="","",_outCoke_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="D20" s="7" t="str">
+      <c r="D20" s="16" t="str">
         <f>IF(_outCoke_day_hour!B16="","",_outCoke_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="E20" s="7" t="str">
+      <c r="E20" s="16" t="str">
         <f>IF(_outCoke_day_hour!C16="","",_outCoke_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="F20" s="7" t="str">
+      <c r="F20" s="16" t="str">
         <f>IF(_outCoke_day_hour!D16="","",_outCoke_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="G20" s="7" t="str">
+      <c r="G20" s="16" t="str">
         <f>IF(_outCoke_day_hour!E16="","",_outCoke_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="H20" s="7" t="str">
+      <c r="H20" s="16" t="str">
         <f>IF(_outCoke_day_hour!F16="","",_outCoke_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="I20" s="7" t="str">
+      <c r="I20" s="16" t="str">
         <f>IF(_outCoke_day_hour!G16="","",_outCoke_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="J20" s="7" t="str">
+      <c r="J20" s="16" t="str">
         <f>IF(_outCoke_day_hour!H16="","",_outCoke_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="K20" s="7" t="str">
+      <c r="K20" s="16" t="str">
         <f>IF(_outCoke_day_hour!I16="","",_outCoke_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="L20" s="7" t="str">
+      <c r="L20" s="16" t="str">
         <f>IF(_outCoke_day_hour!J16="","",_outCoke_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="M20" s="7" t="str">
+      <c r="M20" s="16" t="str">
         <f>IF(_outCoke_day_hour!K16="","",_outCoke_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="N20" s="7" t="str">
+      <c r="N20" s="16" t="str">
         <f>IF(_outCoke_day_hour!L16="","",_outCoke_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="O20" s="7" t="str">
+      <c r="O20" s="16" t="str">
         <f>IF(_outCoke_day_hour!M16="","",_outCoke_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="12" t="str">
+      <c r="P20" s="28" t="str">
         <f>IF(_outCoke_day_hour!N16="","",_outCoke_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="12" t="str">
+      <c r="Q20" s="28" t="str">
         <f>IF(_outCoke_day_hour!O16="","",_outCoke_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="12" t="str">
+      <c r="R20" s="28" t="str">
         <f>IF(_outCoke_day_hour!P16="","",_outCoke_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="17" t="str">
+      <c r="S20" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q16="","",_outCoke_day_hour!Q16)</f>
         <v/>
       </c>
@@ -7619,76 +8211,76 @@
       <c r="IS20" s="4"/>
       <c r="IT20" s="4"/>
     </row>
-    <row r="21" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="15.95" customHeight="1" spans="1:254">
       <c r="A21" s="4"/>
-      <c r="B21" s="6">
+      <c r="B21" s="15">
         <v>0.625</v>
       </c>
-      <c r="C21" s="7" t="str">
+      <c r="C21" s="16" t="str">
         <f>IF(_outCoke_day_hour!A17="","",_outCoke_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="D21" s="7" t="str">
+      <c r="D21" s="16" t="str">
         <f>IF(_outCoke_day_hour!B17="","",_outCoke_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="E21" s="7" t="str">
+      <c r="E21" s="16" t="str">
         <f>IF(_outCoke_day_hour!C17="","",_outCoke_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="F21" s="7" t="str">
+      <c r="F21" s="16" t="str">
         <f>IF(_outCoke_day_hour!D17="","",_outCoke_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="G21" s="7" t="str">
+      <c r="G21" s="16" t="str">
         <f>IF(_outCoke_day_hour!E17="","",_outCoke_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="H21" s="7" t="str">
+      <c r="H21" s="16" t="str">
         <f>IF(_outCoke_day_hour!F17="","",_outCoke_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="I21" s="7" t="str">
+      <c r="I21" s="16" t="str">
         <f>IF(_outCoke_day_hour!G17="","",_outCoke_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="J21" s="7" t="str">
+      <c r="J21" s="16" t="str">
         <f>IF(_outCoke_day_hour!H17="","",_outCoke_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="K21" s="7" t="str">
+      <c r="K21" s="16" t="str">
         <f>IF(_outCoke_day_hour!I17="","",_outCoke_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="L21" s="7" t="str">
+      <c r="L21" s="16" t="str">
         <f>IF(_outCoke_day_hour!J17="","",_outCoke_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="M21" s="7" t="str">
+      <c r="M21" s="16" t="str">
         <f>IF(_outCoke_day_hour!K17="","",_outCoke_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="N21" s="7" t="str">
+      <c r="N21" s="16" t="str">
         <f>IF(_outCoke_day_hour!L17="","",_outCoke_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="O21" s="7" t="str">
+      <c r="O21" s="16" t="str">
         <f>IF(_outCoke_day_hour!M17="","",_outCoke_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="12" t="str">
+      <c r="P21" s="28" t="str">
         <f>IF(_outCoke_day_hour!N17="","",_outCoke_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="12" t="str">
+      <c r="Q21" s="28" t="str">
         <f>IF(_outCoke_day_hour!O17="","",_outCoke_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="12" t="str">
+      <c r="R21" s="28" t="str">
         <f>IF(_outCoke_day_hour!P17="","",_outCoke_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="17" t="str">
+      <c r="S21" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q17="","",_outCoke_day_hour!Q17)</f>
         <v/>
       </c>
@@ -7928,76 +8520,76 @@
       <c r="IS21" s="4"/>
       <c r="IT21" s="4"/>
     </row>
-    <row r="22" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="15.95" customHeight="1" spans="1:254">
       <c r="A22" s="4"/>
-      <c r="B22" s="6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C22" s="7" t="str">
+      <c r="B22" s="15">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C22" s="16" t="str">
         <f>IF(_outCoke_day_hour!A18="","",_outCoke_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="D22" s="7" t="str">
+      <c r="D22" s="16" t="str">
         <f>IF(_outCoke_day_hour!B18="","",_outCoke_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="E22" s="7" t="str">
+      <c r="E22" s="16" t="str">
         <f>IF(_outCoke_day_hour!C18="","",_outCoke_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="F22" s="7" t="str">
+      <c r="F22" s="16" t="str">
         <f>IF(_outCoke_day_hour!D18="","",_outCoke_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="G22" s="7" t="str">
+      <c r="G22" s="16" t="str">
         <f>IF(_outCoke_day_hour!E18="","",_outCoke_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="H22" s="7" t="str">
+      <c r="H22" s="16" t="str">
         <f>IF(_outCoke_day_hour!F18="","",_outCoke_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="I22" s="7" t="str">
+      <c r="I22" s="16" t="str">
         <f>IF(_outCoke_day_hour!G18="","",_outCoke_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="J22" s="7" t="str">
+      <c r="J22" s="16" t="str">
         <f>IF(_outCoke_day_hour!H18="","",_outCoke_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="K22" s="7" t="str">
+      <c r="K22" s="16" t="str">
         <f>IF(_outCoke_day_hour!I18="","",_outCoke_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="L22" s="7" t="str">
+      <c r="L22" s="16" t="str">
         <f>IF(_outCoke_day_hour!J18="","",_outCoke_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="M22" s="7" t="str">
+      <c r="M22" s="16" t="str">
         <f>IF(_outCoke_day_hour!K18="","",_outCoke_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="N22" s="7" t="str">
+      <c r="N22" s="16" t="str">
         <f>IF(_outCoke_day_hour!L18="","",_outCoke_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="O22" s="7" t="str">
+      <c r="O22" s="16" t="str">
         <f>IF(_outCoke_day_hour!M18="","",_outCoke_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="12" t="str">
+      <c r="P22" s="28" t="str">
         <f>IF(_outCoke_day_hour!N18="","",_outCoke_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="12" t="str">
+      <c r="Q22" s="28" t="str">
         <f>IF(_outCoke_day_hour!O18="","",_outCoke_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="12" t="str">
+      <c r="R22" s="28" t="str">
         <f>IF(_outCoke_day_hour!P18="","",_outCoke_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="17" t="str">
+      <c r="S22" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q18="","",_outCoke_day_hour!Q18)</f>
         <v/>
       </c>
@@ -8237,76 +8829,76 @@
       <c r="IS22" s="4"/>
       <c r="IT22" s="4"/>
     </row>
-    <row r="23" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="15.95" customHeight="1" spans="1:254">
       <c r="A23" s="4"/>
-      <c r="B23" s="6">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C23" s="7" t="str">
+      <c r="B23" s="15">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C23" s="16" t="str">
         <f>IF(_outCoke_day_hour!A19="","",_outCoke_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="D23" s="7" t="str">
+      <c r="D23" s="16" t="str">
         <f>IF(_outCoke_day_hour!B19="","",_outCoke_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="E23" s="7" t="str">
+      <c r="E23" s="16" t="str">
         <f>IF(_outCoke_day_hour!C19="","",_outCoke_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="F23" s="7" t="str">
+      <c r="F23" s="16" t="str">
         <f>IF(_outCoke_day_hour!D19="","",_outCoke_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="G23" s="7" t="str">
+      <c r="G23" s="16" t="str">
         <f>IF(_outCoke_day_hour!E19="","",_outCoke_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="H23" s="7" t="str">
+      <c r="H23" s="16" t="str">
         <f>IF(_outCoke_day_hour!F19="","",_outCoke_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="I23" s="7" t="str">
+      <c r="I23" s="16" t="str">
         <f>IF(_outCoke_day_hour!G19="","",_outCoke_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="J23" s="7" t="str">
+      <c r="J23" s="16" t="str">
         <f>IF(_outCoke_day_hour!H19="","",_outCoke_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="K23" s="7" t="str">
+      <c r="K23" s="16" t="str">
         <f>IF(_outCoke_day_hour!I19="","",_outCoke_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="L23" s="7" t="str">
+      <c r="L23" s="16" t="str">
         <f>IF(_outCoke_day_hour!J19="","",_outCoke_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="M23" s="7" t="str">
+      <c r="M23" s="16" t="str">
         <f>IF(_outCoke_day_hour!K19="","",_outCoke_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="N23" s="7" t="str">
+      <c r="N23" s="16" t="str">
         <f>IF(_outCoke_day_hour!L19="","",_outCoke_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="O23" s="7" t="str">
+      <c r="O23" s="16" t="str">
         <f>IF(_outCoke_day_hour!M19="","",_outCoke_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="12" t="str">
+      <c r="P23" s="28" t="str">
         <f>IF(_outCoke_day_hour!N19="","",_outCoke_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="12" t="str">
+      <c r="Q23" s="28" t="str">
         <f>IF(_outCoke_day_hour!O19="","",_outCoke_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="12" t="str">
+      <c r="R23" s="28" t="str">
         <f>IF(_outCoke_day_hour!P19="","",_outCoke_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="17" t="str">
+      <c r="S23" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q19="","",_outCoke_day_hour!Q19)</f>
         <v/>
       </c>
@@ -8546,76 +9138,76 @@
       <c r="IS23" s="4"/>
       <c r="IT23" s="4"/>
     </row>
-    <row r="24" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="15.95" customHeight="1" spans="1:254">
       <c r="A24" s="4"/>
-      <c r="B24" s="6">
+      <c r="B24" s="15">
         <v>0.75</v>
       </c>
-      <c r="C24" s="7" t="str">
+      <c r="C24" s="16" t="str">
         <f>IF(_outCoke_day_hour!A20="","",_outCoke_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="D24" s="7" t="str">
+      <c r="D24" s="16" t="str">
         <f>IF(_outCoke_day_hour!B20="","",_outCoke_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="E24" s="7" t="str">
+      <c r="E24" s="16" t="str">
         <f>IF(_outCoke_day_hour!C20="","",_outCoke_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="F24" s="7" t="str">
+      <c r="F24" s="16" t="str">
         <f>IF(_outCoke_day_hour!D20="","",_outCoke_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="G24" s="7" t="str">
+      <c r="G24" s="16" t="str">
         <f>IF(_outCoke_day_hour!E20="","",_outCoke_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="H24" s="7" t="str">
+      <c r="H24" s="16" t="str">
         <f>IF(_outCoke_day_hour!F20="","",_outCoke_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="I24" s="7" t="str">
+      <c r="I24" s="16" t="str">
         <f>IF(_outCoke_day_hour!G20="","",_outCoke_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="J24" s="7" t="str">
+      <c r="J24" s="16" t="str">
         <f>IF(_outCoke_day_hour!H20="","",_outCoke_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="K24" s="7" t="str">
+      <c r="K24" s="16" t="str">
         <f>IF(_outCoke_day_hour!I20="","",_outCoke_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="L24" s="7" t="str">
+      <c r="L24" s="16" t="str">
         <f>IF(_outCoke_day_hour!J20="","",_outCoke_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="M24" s="7" t="str">
+      <c r="M24" s="16" t="str">
         <f>IF(_outCoke_day_hour!K20="","",_outCoke_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="N24" s="7" t="str">
+      <c r="N24" s="16" t="str">
         <f>IF(_outCoke_day_hour!L20="","",_outCoke_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="O24" s="7" t="str">
+      <c r="O24" s="16" t="str">
         <f>IF(_outCoke_day_hour!M20="","",_outCoke_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="12" t="str">
+      <c r="P24" s="28" t="str">
         <f>IF(_outCoke_day_hour!N20="","",_outCoke_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="12" t="str">
+      <c r="Q24" s="28" t="str">
         <f>IF(_outCoke_day_hour!O20="","",_outCoke_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="12" t="str">
+      <c r="R24" s="28" t="str">
         <f>IF(_outCoke_day_hour!P20="","",_outCoke_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="17" t="str">
+      <c r="S24" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q20="","",_outCoke_day_hour!Q20)</f>
         <v/>
       </c>
@@ -8855,76 +9447,76 @@
       <c r="IS24" s="4"/>
       <c r="IT24" s="4"/>
     </row>
-    <row r="25" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="15.95" customHeight="1" spans="1:254">
       <c r="A25" s="4"/>
-      <c r="B25" s="6">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C25" s="7" t="str">
+      <c r="B25" s="15">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C25" s="16" t="str">
         <f>IF(_outCoke_day_hour!A21="","",_outCoke_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="D25" s="7" t="str">
+      <c r="D25" s="16" t="str">
         <f>IF(_outCoke_day_hour!B21="","",_outCoke_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="E25" s="7" t="str">
+      <c r="E25" s="16" t="str">
         <f>IF(_outCoke_day_hour!C21="","",_outCoke_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="F25" s="7" t="str">
+      <c r="F25" s="16" t="str">
         <f>IF(_outCoke_day_hour!D21="","",_outCoke_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="G25" s="7" t="str">
+      <c r="G25" s="16" t="str">
         <f>IF(_outCoke_day_hour!E21="","",_outCoke_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="H25" s="7" t="str">
+      <c r="H25" s="16" t="str">
         <f>IF(_outCoke_day_hour!F21="","",_outCoke_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="I25" s="7" t="str">
+      <c r="I25" s="16" t="str">
         <f>IF(_outCoke_day_hour!G21="","",_outCoke_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="J25" s="7" t="str">
+      <c r="J25" s="16" t="str">
         <f>IF(_outCoke_day_hour!H21="","",_outCoke_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="K25" s="7" t="str">
+      <c r="K25" s="16" t="str">
         <f>IF(_outCoke_day_hour!I21="","",_outCoke_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="L25" s="7" t="str">
+      <c r="L25" s="16" t="str">
         <f>IF(_outCoke_day_hour!J21="","",_outCoke_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="M25" s="7" t="str">
+      <c r="M25" s="16" t="str">
         <f>IF(_outCoke_day_hour!K21="","",_outCoke_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="N25" s="7" t="str">
+      <c r="N25" s="16" t="str">
         <f>IF(_outCoke_day_hour!L21="","",_outCoke_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="O25" s="7" t="str">
+      <c r="O25" s="16" t="str">
         <f>IF(_outCoke_day_hour!M21="","",_outCoke_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="12" t="str">
+      <c r="P25" s="28" t="str">
         <f>IF(_outCoke_day_hour!N21="","",_outCoke_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="12" t="str">
+      <c r="Q25" s="28" t="str">
         <f>IF(_outCoke_day_hour!O21="","",_outCoke_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="12" t="str">
+      <c r="R25" s="28" t="str">
         <f>IF(_outCoke_day_hour!P21="","",_outCoke_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="17" t="str">
+      <c r="S25" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q21="","",_outCoke_day_hour!Q21)</f>
         <v/>
       </c>
@@ -9164,76 +9756,76 @@
       <c r="IS25" s="4"/>
       <c r="IT25" s="4"/>
     </row>
-    <row r="26" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="15.95" customHeight="1" spans="1:254">
       <c r="A26" s="4"/>
-      <c r="B26" s="6">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C26" s="7" t="str">
+      <c r="B26" s="15">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C26" s="16" t="str">
         <f>IF(_outCoke_day_hour!A22="","",_outCoke_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="D26" s="7" t="str">
+      <c r="D26" s="16" t="str">
         <f>IF(_outCoke_day_hour!B22="","",_outCoke_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="E26" s="7" t="str">
+      <c r="E26" s="16" t="str">
         <f>IF(_outCoke_day_hour!C22="","",_outCoke_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="F26" s="7" t="str">
+      <c r="F26" s="16" t="str">
         <f>IF(_outCoke_day_hour!D22="","",_outCoke_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="G26" s="7" t="str">
+      <c r="G26" s="16" t="str">
         <f>IF(_outCoke_day_hour!E22="","",_outCoke_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="H26" s="7" t="str">
+      <c r="H26" s="16" t="str">
         <f>IF(_outCoke_day_hour!F22="","",_outCoke_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="I26" s="7" t="str">
+      <c r="I26" s="16" t="str">
         <f>IF(_outCoke_day_hour!G22="","",_outCoke_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="J26" s="7" t="str">
+      <c r="J26" s="16" t="str">
         <f>IF(_outCoke_day_hour!H22="","",_outCoke_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="K26" s="7" t="str">
+      <c r="K26" s="16" t="str">
         <f>IF(_outCoke_day_hour!I22="","",_outCoke_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="L26" s="7" t="str">
+      <c r="L26" s="16" t="str">
         <f>IF(_outCoke_day_hour!J22="","",_outCoke_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="M26" s="7" t="str">
+      <c r="M26" s="16" t="str">
         <f>IF(_outCoke_day_hour!K22="","",_outCoke_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="N26" s="7" t="str">
+      <c r="N26" s="16" t="str">
         <f>IF(_outCoke_day_hour!L22="","",_outCoke_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="O26" s="7" t="str">
+      <c r="O26" s="16" t="str">
         <f>IF(_outCoke_day_hour!M22="","",_outCoke_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="12" t="str">
+      <c r="P26" s="28" t="str">
         <f>IF(_outCoke_day_hour!N22="","",_outCoke_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="12" t="str">
+      <c r="Q26" s="28" t="str">
         <f>IF(_outCoke_day_hour!O22="","",_outCoke_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="12" t="str">
+      <c r="R26" s="28" t="str">
         <f>IF(_outCoke_day_hour!P22="","",_outCoke_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="17" t="str">
+      <c r="S26" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q22="","",_outCoke_day_hour!Q22)</f>
         <v/>
       </c>
@@ -9473,76 +10065,76 @@
       <c r="IS26" s="4"/>
       <c r="IT26" s="4"/>
     </row>
-    <row r="27" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="15.95" customHeight="1" spans="1:254">
       <c r="A27" s="4"/>
-      <c r="B27" s="6">
+      <c r="B27" s="15">
         <v>0.875</v>
       </c>
-      <c r="C27" s="7" t="str">
+      <c r="C27" s="16" t="str">
         <f>IF(_outCoke_day_hour!A23="","",_outCoke_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="D27" s="7" t="str">
+      <c r="D27" s="16" t="str">
         <f>IF(_outCoke_day_hour!B23="","",_outCoke_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="E27" s="7" t="str">
+      <c r="E27" s="16" t="str">
         <f>IF(_outCoke_day_hour!C23="","",_outCoke_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="F27" s="7" t="str">
+      <c r="F27" s="16" t="str">
         <f>IF(_outCoke_day_hour!D23="","",_outCoke_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="G27" s="7" t="str">
+      <c r="G27" s="16" t="str">
         <f>IF(_outCoke_day_hour!E23="","",_outCoke_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="H27" s="7" t="str">
+      <c r="H27" s="16" t="str">
         <f>IF(_outCoke_day_hour!F23="","",_outCoke_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="I27" s="7" t="str">
+      <c r="I27" s="16" t="str">
         <f>IF(_outCoke_day_hour!G23="","",_outCoke_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="J27" s="7" t="str">
+      <c r="J27" s="16" t="str">
         <f>IF(_outCoke_day_hour!H23="","",_outCoke_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="K27" s="7" t="str">
+      <c r="K27" s="16" t="str">
         <f>IF(_outCoke_day_hour!I23="","",_outCoke_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="L27" s="7" t="str">
+      <c r="L27" s="16" t="str">
         <f>IF(_outCoke_day_hour!J23="","",_outCoke_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="M27" s="7" t="str">
+      <c r="M27" s="16" t="str">
         <f>IF(_outCoke_day_hour!K23="","",_outCoke_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="N27" s="7" t="str">
+      <c r="N27" s="16" t="str">
         <f>IF(_outCoke_day_hour!L23="","",_outCoke_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="O27" s="7" t="str">
+      <c r="O27" s="16" t="str">
         <f>IF(_outCoke_day_hour!M23="","",_outCoke_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="12" t="str">
+      <c r="P27" s="28" t="str">
         <f>IF(_outCoke_day_hour!N23="","",_outCoke_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="12" t="str">
+      <c r="Q27" s="28" t="str">
         <f>IF(_outCoke_day_hour!O23="","",_outCoke_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="12" t="str">
+      <c r="R27" s="28" t="str">
         <f>IF(_outCoke_day_hour!P23="","",_outCoke_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="17" t="str">
+      <c r="S27" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q23="","",_outCoke_day_hour!Q23)</f>
         <v/>
       </c>
@@ -9782,76 +10374,76 @@
       <c r="IS27" s="4"/>
       <c r="IT27" s="4"/>
     </row>
-    <row r="28" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="15.95" customHeight="1" spans="1:254">
       <c r="A28" s="4"/>
-      <c r="B28" s="6">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C28" s="7" t="str">
+      <c r="B28" s="15">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C28" s="16" t="str">
         <f>IF(_outCoke_day_hour!A24="","",_outCoke_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="D28" s="7" t="str">
+      <c r="D28" s="16" t="str">
         <f>IF(_outCoke_day_hour!B24="","",_outCoke_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="E28" s="7" t="str">
+      <c r="E28" s="16" t="str">
         <f>IF(_outCoke_day_hour!C24="","",_outCoke_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="F28" s="7" t="str">
+      <c r="F28" s="16" t="str">
         <f>IF(_outCoke_day_hour!D24="","",_outCoke_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="G28" s="7" t="str">
+      <c r="G28" s="16" t="str">
         <f>IF(_outCoke_day_hour!E24="","",_outCoke_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="H28" s="7" t="str">
+      <c r="H28" s="16" t="str">
         <f>IF(_outCoke_day_hour!F24="","",_outCoke_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="I28" s="7" t="str">
+      <c r="I28" s="16" t="str">
         <f>IF(_outCoke_day_hour!G24="","",_outCoke_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="J28" s="7" t="str">
+      <c r="J28" s="16" t="str">
         <f>IF(_outCoke_day_hour!H24="","",_outCoke_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="K28" s="7" t="str">
+      <c r="K28" s="16" t="str">
         <f>IF(_outCoke_day_hour!I24="","",_outCoke_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="L28" s="7" t="str">
+      <c r="L28" s="16" t="str">
         <f>IF(_outCoke_day_hour!J24="","",_outCoke_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="M28" s="7" t="str">
+      <c r="M28" s="16" t="str">
         <f>IF(_outCoke_day_hour!K24="","",_outCoke_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="N28" s="7" t="str">
+      <c r="N28" s="16" t="str">
         <f>IF(_outCoke_day_hour!L24="","",_outCoke_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="O28" s="7" t="str">
+      <c r="O28" s="16" t="str">
         <f>IF(_outCoke_day_hour!M24="","",_outCoke_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="12" t="str">
+      <c r="P28" s="28" t="str">
         <f>IF(_outCoke_day_hour!N24="","",_outCoke_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="12" t="str">
+      <c r="Q28" s="28" t="str">
         <f>IF(_outCoke_day_hour!O24="","",_outCoke_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="12" t="str">
+      <c r="R28" s="28" t="str">
         <f>IF(_outCoke_day_hour!P24="","",_outCoke_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="17" t="str">
+      <c r="S28" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q24="","",_outCoke_day_hour!Q24)</f>
         <v/>
       </c>
@@ -10091,76 +10683,76 @@
       <c r="IS28" s="4"/>
       <c r="IT28" s="4"/>
     </row>
-    <row r="29" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="15.95" customHeight="1" spans="1:254">
       <c r="A29" s="4"/>
-      <c r="B29" s="6">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C29" s="7" t="str">
+      <c r="B29" s="15">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C29" s="16" t="str">
         <f>IF(_outCoke_day_hour!A25="","",_outCoke_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="D29" s="7" t="str">
+      <c r="D29" s="16" t="str">
         <f>IF(_outCoke_day_hour!B25="","",_outCoke_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="E29" s="7" t="str">
+      <c r="E29" s="16" t="str">
         <f>IF(_outCoke_day_hour!C25="","",_outCoke_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="F29" s="7" t="str">
+      <c r="F29" s="16" t="str">
         <f>IF(_outCoke_day_hour!D25="","",_outCoke_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="G29" s="7" t="str">
+      <c r="G29" s="16" t="str">
         <f>IF(_outCoke_day_hour!E25="","",_outCoke_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="H29" s="7" t="str">
+      <c r="H29" s="16" t="str">
         <f>IF(_outCoke_day_hour!F25="","",_outCoke_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="I29" s="7" t="str">
+      <c r="I29" s="16" t="str">
         <f>IF(_outCoke_day_hour!G25="","",_outCoke_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="J29" s="7" t="str">
+      <c r="J29" s="16" t="str">
         <f>IF(_outCoke_day_hour!H25="","",_outCoke_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="K29" s="7" t="str">
+      <c r="K29" s="16" t="str">
         <f>IF(_outCoke_day_hour!I25="","",_outCoke_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="L29" s="7" t="str">
+      <c r="L29" s="16" t="str">
         <f>IF(_outCoke_day_hour!J25="","",_outCoke_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="M29" s="7" t="str">
+      <c r="M29" s="16" t="str">
         <f>IF(_outCoke_day_hour!K25="","",_outCoke_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="N29" s="7" t="str">
+      <c r="N29" s="16" t="str">
         <f>IF(_outCoke_day_hour!L25="","",_outCoke_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="O29" s="7" t="str">
+      <c r="O29" s="16" t="str">
         <f>IF(_outCoke_day_hour!M25="","",_outCoke_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="12" t="str">
+      <c r="P29" s="28" t="str">
         <f>IF(_outCoke_day_hour!N25="","",_outCoke_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="12" t="str">
+      <c r="Q29" s="28" t="str">
         <f>IF(_outCoke_day_hour!O25="","",_outCoke_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="12" t="str">
+      <c r="R29" s="28" t="str">
         <f>IF(_outCoke_day_hour!P25="","",_outCoke_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="17" t="str">
+      <c r="S29" s="37" t="str">
         <f>IF(_outCoke_day_hour!Q25="","",_outCoke_day_hour!Q25)</f>
         <v/>
       </c>
@@ -10400,28 +10992,28 @@
       <c r="IS29" s="4"/>
       <c r="IT29" s="4"/>
     </row>
-    <row r="30" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="15.95" customHeight="1" spans="1:254">
       <c r="A30" s="4"/>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="37"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -10658,28 +11250,28 @@
       <c r="IS30" s="4"/>
       <c r="IT30" s="4"/>
     </row>
-    <row r="31" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="15.95" customHeight="1" spans="1:254">
       <c r="A31" s="4"/>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="37"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -10916,28 +11508,28 @@
       <c r="IS31" s="4"/>
       <c r="IT31" s="4"/>
     </row>
-    <row r="32" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="15.95" customHeight="1" spans="1:254">
       <c r="A32" s="4"/>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="37"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -11174,28 +11766,28 @@
       <c r="IS32" s="4"/>
       <c r="IT32" s="4"/>
     </row>
-    <row r="33" spans="1:254" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="15.95" customHeight="1" spans="1:254">
       <c r="A33" s="4"/>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="37"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -11432,32 +12024,32 @@
       <c r="IS33" s="4"/>
       <c r="IT33" s="4"/>
     </row>
-    <row r="34" spans="1:254" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="63" customHeight="1" spans="1:254">
       <c r="A34" s="4"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="23" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="23" t="s">
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="25"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="22"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -11694,40 +12286,34 @@
       <c r="IS34" s="4"/>
       <c r="IT34" s="4"/>
     </row>
-    <row r="35" spans="1:254" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="26" t="s">
+    <row r="35" ht="15.6" customHeight="1" spans="2:19">
+      <c r="B35" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="26" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="26" t="s">
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="28"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:S34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="O2:S2"/>
@@ -11735,6 +12321,12 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:P3"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:S34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:S35"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -11743,26 +12335,27 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="63" x14ac:dyDescent="0.15">
+    <row r="1" ht="63" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -11816,20 +12409,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
@@ -635,9 +635,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -692,22 +692,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,8 +736,47 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,71 +790,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -819,19 +812,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -872,6 +872,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -884,7 +926,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,13 +992,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,13 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,43 +1034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,79 +1052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,71 +1327,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1416,11 +1351,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1430,10 +1430,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1442,133 +1442,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -2469,9 +2469,9 @@
     </row>
     <row r="2" ht="19.5" spans="1:254">
       <c r="A2" s="4"/>
-      <c r="B2" s="6">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="B2" s="6" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>

--- a/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
+++ b/excel/finished/焦化/CK67-出焦除尘报表设计.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="2.出焦除尘" sheetId="1" r:id="rId1"/>
     <sheet name="_outCoke_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -21,7 +20,62 @@
     <t>6&amp;7#焦 出焦除尘</t>
   </si>
   <si>
-    <t>SGSSG-BSMCSA35-G006-03A</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                           SGSSG-BSMCSA35-G006-03A</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">         参数
@@ -635,12 +689,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,11 +728,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -691,6 +740,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -706,53 +846,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,32 +862,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -807,29 +879,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,7 +921,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,13 +999,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,25 +1059,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,91 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,36 +1089,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1085,7 +1134,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="1"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,15 +1316,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1330,23 +1370,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,22 +1391,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,23 +1433,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1430,10 +1470,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1442,140 +1482,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1590,8 +1630,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1644,38 +1684,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1760,7 +1797,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13662025" y="7926070"/>
+          <a:off x="13662025" y="7887970"/>
           <a:ext cx="4516120" cy="763270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2196,7 +2233,7 @@
   <dimension ref="A1:IT35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:N2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2209,7 +2246,7 @@
     <col min="255" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:254">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:254">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2467,11 +2504,10 @@
       <c r="IS1" s="4"/>
       <c r="IT1" s="4"/>
     </row>
-    <row r="2" ht="19.5" spans="1:254">
+    <row r="2" s="1" customFormat="1" ht="16.5" spans="1:254">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2485,13 +2521,11 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -2728,7 +2762,7 @@
       <c r="IS2" s="4"/>
       <c r="IT2" s="4"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:254">
+    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:254">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
         <v>2</v>
@@ -2764,10 +2798,10 @@
       <c r="Q3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="29" t="s">
         <v>12</v>
       </c>
       <c r="T3" s="4"/>
@@ -3006,7 +3040,7 @@
       <c r="IS3" s="4"/>
       <c r="IT3" s="4"/>
     </row>
-    <row r="4" ht="36.75" spans="1:254">
+    <row r="4" s="1" customFormat="1" ht="36.75" spans="1:254">
       <c r="A4" s="4"/>
       <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
@@ -3046,9 +3080,9 @@
         <v>19</v>
       </c>
       <c r="Q4" s="13"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="33"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="32"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -3284,7 +3318,7 @@
       <c r="IS4" s="4"/>
       <c r="IT4" s="4"/>
     </row>
-    <row r="5" ht="78.75" spans="1:254">
+    <row r="5" s="1" customFormat="1" ht="78.75" spans="1:254">
       <c r="A5" s="4"/>
       <c r="B5" s="14" t="s">
         <v>20</v>
@@ -3576,7 +3610,7 @@
       <c r="IS5" s="4"/>
       <c r="IT5" s="4"/>
     </row>
-    <row r="6" ht="15.75" spans="1:254">
+    <row r="6" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A6" s="4"/>
       <c r="B6" s="15">
         <v>0</v>
@@ -3605,7 +3639,7 @@
         <f>IF(_outCoke_day_hour!F2="","",_outCoke_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="I6" s="27" t="str">
+      <c r="I6" s="26" t="str">
         <f>IF(_outCoke_day_hour!G2="","",_outCoke_day_hour!G2)</f>
         <v/>
       </c>
@@ -3641,11 +3675,11 @@
         <f>IF(_outCoke_day_hour!O2="","",_outCoke_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="R6" s="34" t="str">
+      <c r="R6" s="33" t="str">
         <f>IF(_outCoke_day_hour!P2="","",_outCoke_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="S6" s="35" t="str">
+      <c r="S6" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q2="","",_outCoke_day_hour!Q2)</f>
         <v/>
       </c>
@@ -3885,7 +3919,7 @@
       <c r="IS6" s="4"/>
       <c r="IT6" s="4"/>
     </row>
-    <row r="7" ht="15.75" spans="1:254">
+    <row r="7" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A7" s="4"/>
       <c r="B7" s="15">
         <v>0.0416666666666667</v>
@@ -3914,7 +3948,7 @@
         <f>IF(_outCoke_day_hour!F3="","",_outCoke_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="26" t="str">
         <f>IF(_outCoke_day_hour!G3="","",_outCoke_day_hour!G3)</f>
         <v/>
       </c>
@@ -3950,11 +3984,11 @@
         <f>IF(_outCoke_day_hour!O3="","",_outCoke_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="R7" s="36" t="str">
+      <c r="R7" s="35" t="str">
         <f>IF(_outCoke_day_hour!P3="","",_outCoke_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="S7" s="35" t="str">
+      <c r="S7" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q3="","",_outCoke_day_hour!Q3)</f>
         <v/>
       </c>
@@ -4194,7 +4228,7 @@
       <c r="IS7" s="4"/>
       <c r="IT7" s="4"/>
     </row>
-    <row r="8" ht="15.75" spans="1:254">
+    <row r="8" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A8" s="4"/>
       <c r="B8" s="15">
         <v>0.0833333333333333</v>
@@ -4223,7 +4257,7 @@
         <f>IF(_outCoke_day_hour!F4="","",_outCoke_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="I8" s="27" t="str">
+      <c r="I8" s="26" t="str">
         <f>IF(_outCoke_day_hour!G4="","",_outCoke_day_hour!G4)</f>
         <v/>
       </c>
@@ -4263,7 +4297,7 @@
         <f>IF(_outCoke_day_hour!P4="","",_outCoke_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="S8" s="35" t="str">
+      <c r="S8" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q4="","",_outCoke_day_hour!Q4)</f>
         <v/>
       </c>
@@ -4503,7 +4537,7 @@
       <c r="IS8" s="4"/>
       <c r="IT8" s="4"/>
     </row>
-    <row r="9" ht="15.75" spans="1:254">
+    <row r="9" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A9" s="4"/>
       <c r="B9" s="15">
         <v>0.125</v>
@@ -4532,7 +4566,7 @@
         <f>IF(_outCoke_day_hour!F5="","",_outCoke_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I9" s="27" t="str">
+      <c r="I9" s="26" t="str">
         <f>IF(_outCoke_day_hour!G5="","",_outCoke_day_hour!G5)</f>
         <v/>
       </c>
@@ -4572,7 +4606,7 @@
         <f>IF(_outCoke_day_hour!P5="","",_outCoke_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S9" s="35" t="str">
+      <c r="S9" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q5="","",_outCoke_day_hour!Q5)</f>
         <v/>
       </c>
@@ -4812,7 +4846,7 @@
       <c r="IS9" s="4"/>
       <c r="IT9" s="4"/>
     </row>
-    <row r="10" ht="15.75" spans="1:254">
+    <row r="10" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A10" s="4"/>
       <c r="B10" s="15">
         <v>0.166666666666667</v>
@@ -4841,7 +4875,7 @@
         <f>IF(_outCoke_day_hour!F6="","",_outCoke_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="26" t="str">
         <f>IF(_outCoke_day_hour!G6="","",_outCoke_day_hour!G6)</f>
         <v/>
       </c>
@@ -4881,7 +4915,7 @@
         <f>IF(_outCoke_day_hour!P6="","",_outCoke_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S10" s="35" t="str">
+      <c r="S10" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q6="","",_outCoke_day_hour!Q6)</f>
         <v/>
       </c>
@@ -5121,7 +5155,7 @@
       <c r="IS10" s="4"/>
       <c r="IT10" s="4"/>
     </row>
-    <row r="11" ht="15.75" spans="1:254">
+    <row r="11" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A11" s="4"/>
       <c r="B11" s="15">
         <v>0.208333333333333</v>
@@ -5150,7 +5184,7 @@
         <f>IF(_outCoke_day_hour!F7="","",_outCoke_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="26" t="str">
         <f>IF(_outCoke_day_hour!G7="","",_outCoke_day_hour!G7)</f>
         <v/>
       </c>
@@ -5190,7 +5224,7 @@
         <f>IF(_outCoke_day_hour!P7="","",_outCoke_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S11" s="35" t="str">
+      <c r="S11" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q7="","",_outCoke_day_hour!Q7)</f>
         <v/>
       </c>
@@ -5430,7 +5464,7 @@
       <c r="IS11" s="4"/>
       <c r="IT11" s="4"/>
     </row>
-    <row r="12" ht="15.75" spans="1:254">
+    <row r="12" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A12" s="4"/>
       <c r="B12" s="15">
         <v>0.25</v>
@@ -5459,7 +5493,7 @@
         <f>IF(_outCoke_day_hour!F8="","",_outCoke_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I12" s="27" t="str">
+      <c r="I12" s="26" t="str">
         <f>IF(_outCoke_day_hour!G8="","",_outCoke_day_hour!G8)</f>
         <v/>
       </c>
@@ -5499,7 +5533,7 @@
         <f>IF(_outCoke_day_hour!P8="","",_outCoke_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S12" s="35" t="str">
+      <c r="S12" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q8="","",_outCoke_day_hour!Q8)</f>
         <v/>
       </c>
@@ -5739,7 +5773,7 @@
       <c r="IS12" s="4"/>
       <c r="IT12" s="4"/>
     </row>
-    <row r="13" ht="15.75" spans="1:254">
+    <row r="13" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A13" s="4"/>
       <c r="B13" s="15">
         <v>0.291666666666667</v>
@@ -5768,7 +5802,7 @@
         <f>IF(_outCoke_day_hour!F9="","",_outCoke_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="I13" s="27" t="str">
+      <c r="I13" s="26" t="str">
         <f>IF(_outCoke_day_hour!G9="","",_outCoke_day_hour!G9)</f>
         <v/>
       </c>
@@ -5808,7 +5842,7 @@
         <f>IF(_outCoke_day_hour!P9="","",_outCoke_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="S13" s="35" t="str">
+      <c r="S13" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q9="","",_outCoke_day_hour!Q9)</f>
         <v/>
       </c>
@@ -6048,7 +6082,7 @@
       <c r="IS13" s="4"/>
       <c r="IT13" s="4"/>
     </row>
-    <row r="14" ht="15.75" spans="1:254">
+    <row r="14" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A14" s="4"/>
       <c r="B14" s="15">
         <v>0.333333333333333</v>
@@ -6077,7 +6111,7 @@
         <f>IF(_outCoke_day_hour!F10="","",_outCoke_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="I14" s="27" t="str">
+      <c r="I14" s="26" t="str">
         <f>IF(_outCoke_day_hour!G10="","",_outCoke_day_hour!G10)</f>
         <v/>
       </c>
@@ -6117,7 +6151,7 @@
         <f>IF(_outCoke_day_hour!P10="","",_outCoke_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="S14" s="35" t="str">
+      <c r="S14" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q10="","",_outCoke_day_hour!Q10)</f>
         <v/>
       </c>
@@ -6357,7 +6391,7 @@
       <c r="IS14" s="4"/>
       <c r="IT14" s="4"/>
     </row>
-    <row r="15" ht="15.75" spans="1:254">
+    <row r="15" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A15" s="4"/>
       <c r="B15" s="15">
         <v>0.375</v>
@@ -6386,7 +6420,7 @@
         <f>IF(_outCoke_day_hour!F11="","",_outCoke_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="I15" s="27" t="str">
+      <c r="I15" s="26" t="str">
         <f>IF(_outCoke_day_hour!G11="","",_outCoke_day_hour!G11)</f>
         <v/>
       </c>
@@ -6426,7 +6460,7 @@
         <f>IF(_outCoke_day_hour!P11="","",_outCoke_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="S15" s="35" t="str">
+      <c r="S15" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q11="","",_outCoke_day_hour!Q11)</f>
         <v/>
       </c>
@@ -6666,7 +6700,7 @@
       <c r="IS15" s="4"/>
       <c r="IT15" s="4"/>
     </row>
-    <row r="16" ht="15.75" spans="1:254">
+    <row r="16" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A16" s="4"/>
       <c r="B16" s="15">
         <v>0.416666666666667</v>
@@ -6695,7 +6729,7 @@
         <f>IF(_outCoke_day_hour!F12="","",_outCoke_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="I16" s="27" t="str">
+      <c r="I16" s="26" t="str">
         <f>IF(_outCoke_day_hour!G12="","",_outCoke_day_hour!G12)</f>
         <v/>
       </c>
@@ -6735,7 +6769,7 @@
         <f>IF(_outCoke_day_hour!P12="","",_outCoke_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="S16" s="35" t="str">
+      <c r="S16" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q12="","",_outCoke_day_hour!Q12)</f>
         <v/>
       </c>
@@ -6975,7 +7009,7 @@
       <c r="IS16" s="4"/>
       <c r="IT16" s="4"/>
     </row>
-    <row r="17" ht="15.75" spans="1:254">
+    <row r="17" s="1" customFormat="1" ht="15.75" spans="1:254">
       <c r="A17" s="4"/>
       <c r="B17" s="15">
         <v>0.458333333333333</v>
@@ -7004,7 +7038,7 @@
         <f>IF(_outCoke_day_hour!F13="","",_outCoke_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="I17" s="27" t="str">
+      <c r="I17" s="26" t="str">
         <f>IF(_outCoke_day_hour!G13="","",_outCoke_day_hour!G13)</f>
         <v/>
       </c>
@@ -7044,7 +7078,7 @@
         <f>IF(_outCoke_day_hour!P13="","",_outCoke_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="S17" s="35" t="str">
+      <c r="S17" s="34" t="str">
         <f>IF(_outCoke_day_hour!Q13="","",_outCoke_day_hour!Q13)</f>
         <v/>
       </c>
@@ -7284,7 +7318,7 @@
       <c r="IS17" s="4"/>
       <c r="IT17" s="4"/>
     </row>
-    <row r="18" ht="15.95" customHeight="1" spans="1:254">
+    <row r="18" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A18" s="4"/>
       <c r="B18" s="15">
         <v>0.5</v>
@@ -7341,19 +7375,19 @@
         <f>IF(_outCoke_day_hour!M14="","",_outCoke_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="P18" s="28" t="str">
+      <c r="P18" s="27" t="str">
         <f>IF(_outCoke_day_hour!N14="","",_outCoke_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="Q18" s="28" t="str">
+      <c r="Q18" s="27" t="str">
         <f>IF(_outCoke_day_hour!O14="","",_outCoke_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="R18" s="34" t="str">
+      <c r="R18" s="33" t="str">
         <f>IF(_outCoke_day_hour!P14="","",_outCoke_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="S18" s="37" t="str">
+      <c r="S18" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q14="","",_outCoke_day_hour!Q14)</f>
         <v/>
       </c>
@@ -7593,7 +7627,7 @@
       <c r="IS18" s="4"/>
       <c r="IT18" s="4"/>
     </row>
-    <row r="19" ht="15.95" customHeight="1" spans="1:254">
+    <row r="19" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A19" s="4"/>
       <c r="B19" s="15">
         <v>0.541666666666667</v>
@@ -7650,19 +7684,19 @@
         <f>IF(_outCoke_day_hour!M15="","",_outCoke_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="P19" s="28" t="str">
+      <c r="P19" s="27" t="str">
         <f>IF(_outCoke_day_hour!N15="","",_outCoke_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="Q19" s="28" t="str">
+      <c r="Q19" s="27" t="str">
         <f>IF(_outCoke_day_hour!O15="","",_outCoke_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="R19" s="36" t="str">
+      <c r="R19" s="35" t="str">
         <f>IF(_outCoke_day_hour!P15="","",_outCoke_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="S19" s="37" t="str">
+      <c r="S19" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q15="","",_outCoke_day_hour!Q15)</f>
         <v/>
       </c>
@@ -7902,7 +7936,7 @@
       <c r="IS19" s="4"/>
       <c r="IT19" s="4"/>
     </row>
-    <row r="20" ht="15.95" customHeight="1" spans="1:254">
+    <row r="20" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A20" s="4"/>
       <c r="B20" s="15">
         <v>0.583333333333333</v>
@@ -7959,19 +7993,19 @@
         <f>IF(_outCoke_day_hour!M16="","",_outCoke_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="P20" s="28" t="str">
+      <c r="P20" s="27" t="str">
         <f>IF(_outCoke_day_hour!N16="","",_outCoke_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="Q20" s="28" t="str">
+      <c r="Q20" s="27" t="str">
         <f>IF(_outCoke_day_hour!O16="","",_outCoke_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="R20" s="28" t="str">
+      <c r="R20" s="27" t="str">
         <f>IF(_outCoke_day_hour!P16="","",_outCoke_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="S20" s="37" t="str">
+      <c r="S20" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q16="","",_outCoke_day_hour!Q16)</f>
         <v/>
       </c>
@@ -8211,7 +8245,7 @@
       <c r="IS20" s="4"/>
       <c r="IT20" s="4"/>
     </row>
-    <row r="21" ht="15.95" customHeight="1" spans="1:254">
+    <row r="21" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A21" s="4"/>
       <c r="B21" s="15">
         <v>0.625</v>
@@ -8268,19 +8302,19 @@
         <f>IF(_outCoke_day_hour!M17="","",_outCoke_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="P21" s="28" t="str">
+      <c r="P21" s="27" t="str">
         <f>IF(_outCoke_day_hour!N17="","",_outCoke_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="Q21" s="28" t="str">
+      <c r="Q21" s="27" t="str">
         <f>IF(_outCoke_day_hour!O17="","",_outCoke_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="R21" s="28" t="str">
+      <c r="R21" s="27" t="str">
         <f>IF(_outCoke_day_hour!P17="","",_outCoke_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="S21" s="37" t="str">
+      <c r="S21" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q17="","",_outCoke_day_hour!Q17)</f>
         <v/>
       </c>
@@ -8520,7 +8554,7 @@
       <c r="IS21" s="4"/>
       <c r="IT21" s="4"/>
     </row>
-    <row r="22" ht="15.95" customHeight="1" spans="1:254">
+    <row r="22" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A22" s="4"/>
       <c r="B22" s="15">
         <v>0.666666666666667</v>
@@ -8577,19 +8611,19 @@
         <f>IF(_outCoke_day_hour!M18="","",_outCoke_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="P22" s="28" t="str">
+      <c r="P22" s="27" t="str">
         <f>IF(_outCoke_day_hour!N18="","",_outCoke_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="Q22" s="28" t="str">
+      <c r="Q22" s="27" t="str">
         <f>IF(_outCoke_day_hour!O18="","",_outCoke_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="R22" s="28" t="str">
+      <c r="R22" s="27" t="str">
         <f>IF(_outCoke_day_hour!P18="","",_outCoke_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="S22" s="37" t="str">
+      <c r="S22" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q18="","",_outCoke_day_hour!Q18)</f>
         <v/>
       </c>
@@ -8829,7 +8863,7 @@
       <c r="IS22" s="4"/>
       <c r="IT22" s="4"/>
     </row>
-    <row r="23" ht="15.95" customHeight="1" spans="1:254">
+    <row r="23" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A23" s="4"/>
       <c r="B23" s="15">
         <v>0.708333333333333</v>
@@ -8886,19 +8920,19 @@
         <f>IF(_outCoke_day_hour!M19="","",_outCoke_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="P23" s="28" t="str">
+      <c r="P23" s="27" t="str">
         <f>IF(_outCoke_day_hour!N19="","",_outCoke_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="Q23" s="28" t="str">
+      <c r="Q23" s="27" t="str">
         <f>IF(_outCoke_day_hour!O19="","",_outCoke_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="R23" s="28" t="str">
+      <c r="R23" s="27" t="str">
         <f>IF(_outCoke_day_hour!P19="","",_outCoke_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="S23" s="37" t="str">
+      <c r="S23" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q19="","",_outCoke_day_hour!Q19)</f>
         <v/>
       </c>
@@ -9138,7 +9172,7 @@
       <c r="IS23" s="4"/>
       <c r="IT23" s="4"/>
     </row>
-    <row r="24" ht="15.95" customHeight="1" spans="1:254">
+    <row r="24" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A24" s="4"/>
       <c r="B24" s="15">
         <v>0.75</v>
@@ -9195,19 +9229,19 @@
         <f>IF(_outCoke_day_hour!M20="","",_outCoke_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="P24" s="28" t="str">
+      <c r="P24" s="27" t="str">
         <f>IF(_outCoke_day_hour!N20="","",_outCoke_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="Q24" s="28" t="str">
+      <c r="Q24" s="27" t="str">
         <f>IF(_outCoke_day_hour!O20="","",_outCoke_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="R24" s="28" t="str">
+      <c r="R24" s="27" t="str">
         <f>IF(_outCoke_day_hour!P20="","",_outCoke_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="S24" s="37" t="str">
+      <c r="S24" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q20="","",_outCoke_day_hour!Q20)</f>
         <v/>
       </c>
@@ -9447,7 +9481,7 @@
       <c r="IS24" s="4"/>
       <c r="IT24" s="4"/>
     </row>
-    <row r="25" ht="15.95" customHeight="1" spans="1:254">
+    <row r="25" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A25" s="4"/>
       <c r="B25" s="15">
         <v>0.791666666666667</v>
@@ -9504,19 +9538,19 @@
         <f>IF(_outCoke_day_hour!M21="","",_outCoke_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="P25" s="28" t="str">
+      <c r="P25" s="27" t="str">
         <f>IF(_outCoke_day_hour!N21="","",_outCoke_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="Q25" s="28" t="str">
+      <c r="Q25" s="27" t="str">
         <f>IF(_outCoke_day_hour!O21="","",_outCoke_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="R25" s="28" t="str">
+      <c r="R25" s="27" t="str">
         <f>IF(_outCoke_day_hour!P21="","",_outCoke_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="S25" s="37" t="str">
+      <c r="S25" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q21="","",_outCoke_day_hour!Q21)</f>
         <v/>
       </c>
@@ -9756,7 +9790,7 @@
       <c r="IS25" s="4"/>
       <c r="IT25" s="4"/>
     </row>
-    <row r="26" ht="15.95" customHeight="1" spans="1:254">
+    <row r="26" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A26" s="4"/>
       <c r="B26" s="15">
         <v>0.833333333333333</v>
@@ -9813,19 +9847,19 @@
         <f>IF(_outCoke_day_hour!M22="","",_outCoke_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="P26" s="28" t="str">
+      <c r="P26" s="27" t="str">
         <f>IF(_outCoke_day_hour!N22="","",_outCoke_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="Q26" s="28" t="str">
+      <c r="Q26" s="27" t="str">
         <f>IF(_outCoke_day_hour!O22="","",_outCoke_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="R26" s="28" t="str">
+      <c r="R26" s="27" t="str">
         <f>IF(_outCoke_day_hour!P22="","",_outCoke_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="S26" s="37" t="str">
+      <c r="S26" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q22="","",_outCoke_day_hour!Q22)</f>
         <v/>
       </c>
@@ -10065,7 +10099,7 @@
       <c r="IS26" s="4"/>
       <c r="IT26" s="4"/>
     </row>
-    <row r="27" ht="15.95" customHeight="1" spans="1:254">
+    <row r="27" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A27" s="4"/>
       <c r="B27" s="15">
         <v>0.875</v>
@@ -10122,19 +10156,19 @@
         <f>IF(_outCoke_day_hour!M23="","",_outCoke_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="P27" s="28" t="str">
+      <c r="P27" s="27" t="str">
         <f>IF(_outCoke_day_hour!N23="","",_outCoke_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="Q27" s="28" t="str">
+      <c r="Q27" s="27" t="str">
         <f>IF(_outCoke_day_hour!O23="","",_outCoke_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="R27" s="28" t="str">
+      <c r="R27" s="27" t="str">
         <f>IF(_outCoke_day_hour!P23="","",_outCoke_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="S27" s="37" t="str">
+      <c r="S27" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q23="","",_outCoke_day_hour!Q23)</f>
         <v/>
       </c>
@@ -10374,7 +10408,7 @@
       <c r="IS27" s="4"/>
       <c r="IT27" s="4"/>
     </row>
-    <row r="28" ht="15.95" customHeight="1" spans="1:254">
+    <row r="28" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A28" s="4"/>
       <c r="B28" s="15">
         <v>0.916666666666667</v>
@@ -10431,19 +10465,19 @@
         <f>IF(_outCoke_day_hour!M24="","",_outCoke_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="P28" s="28" t="str">
+      <c r="P28" s="27" t="str">
         <f>IF(_outCoke_day_hour!N24="","",_outCoke_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="Q28" s="28" t="str">
+      <c r="Q28" s="27" t="str">
         <f>IF(_outCoke_day_hour!O24="","",_outCoke_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="R28" s="28" t="str">
+      <c r="R28" s="27" t="str">
         <f>IF(_outCoke_day_hour!P24="","",_outCoke_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="S28" s="37" t="str">
+      <c r="S28" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q24="","",_outCoke_day_hour!Q24)</f>
         <v/>
       </c>
@@ -10683,7 +10717,7 @@
       <c r="IS28" s="4"/>
       <c r="IT28" s="4"/>
     </row>
-    <row r="29" ht="15.95" customHeight="1" spans="1:254">
+    <row r="29" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A29" s="4"/>
       <c r="B29" s="15">
         <v>0.958333333333333</v>
@@ -10740,19 +10774,19 @@
         <f>IF(_outCoke_day_hour!M25="","",_outCoke_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="P29" s="28" t="str">
+      <c r="P29" s="27" t="str">
         <f>IF(_outCoke_day_hour!N25="","",_outCoke_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="Q29" s="28" t="str">
+      <c r="Q29" s="27" t="str">
         <f>IF(_outCoke_day_hour!O25="","",_outCoke_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="R29" s="28" t="str">
+      <c r="R29" s="27" t="str">
         <f>IF(_outCoke_day_hour!P25="","",_outCoke_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="S29" s="37" t="str">
+      <c r="S29" s="36" t="str">
         <f>IF(_outCoke_day_hour!Q25="","",_outCoke_day_hour!Q25)</f>
         <v/>
       </c>
@@ -10992,7 +11026,7 @@
       <c r="IS29" s="4"/>
       <c r="IT29" s="4"/>
     </row>
-    <row r="30" ht="15.95" customHeight="1" spans="1:254">
+    <row r="30" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A30" s="4"/>
       <c r="B30" s="17" t="s">
         <v>38</v>
@@ -11010,10 +11044,10 @@
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="37"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="36"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -11250,7 +11284,7 @@
       <c r="IS30" s="4"/>
       <c r="IT30" s="4"/>
     </row>
-    <row r="31" ht="15.95" customHeight="1" spans="1:254">
+    <row r="31" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A31" s="4"/>
       <c r="B31" s="17" t="s">
         <v>39</v>
@@ -11268,10 +11302,10 @@
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="37"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="36"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -11508,7 +11542,7 @@
       <c r="IS31" s="4"/>
       <c r="IT31" s="4"/>
     </row>
-    <row r="32" ht="15.95" customHeight="1" spans="1:254">
+    <row r="32" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A32" s="4"/>
       <c r="B32" s="17" t="s">
         <v>40</v>
@@ -11526,10 +11560,10 @@
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="37"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="36"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -11766,7 +11800,7 @@
       <c r="IS32" s="4"/>
       <c r="IT32" s="4"/>
     </row>
-    <row r="33" ht="15.95" customHeight="1" spans="1:254">
+    <row r="33" s="1" customFormat="1" ht="15.95" customHeight="1" spans="1:254">
       <c r="A33" s="4"/>
       <c r="B33" s="19" t="s">
         <v>41</v>
@@ -11784,10 +11818,10 @@
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="37"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="36"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -12024,7 +12058,7 @@
       <c r="IS33" s="4"/>
       <c r="IT33" s="4"/>
     </row>
-    <row r="34" ht="63" customHeight="1" spans="1:254">
+    <row r="34" s="1" customFormat="1" ht="63" customHeight="1" spans="1:254">
       <c r="A34" s="4"/>
       <c r="B34" s="20" t="s">
         <v>42</v>
@@ -12286,7 +12320,7 @@
       <c r="IS34" s="4"/>
       <c r="IT34" s="4"/>
     </row>
-    <row r="35" ht="15.6" customHeight="1" spans="2:19">
+    <row r="35" s="1" customFormat="1" ht="15.6" customHeight="1" spans="2:19">
       <c r="B35" s="23" t="s">
         <v>45</v>
       </c>
@@ -12313,10 +12347,9 @@
       <c r="S35" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="B1:S1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="B2:S2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="K3:L3"/>
@@ -12355,7 +12388,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" spans="1:17">
+    <row r="1" s="1" customFormat="1" ht="63" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -12412,20 +12445,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>